--- a/files/temp-work-2.xlsx
+++ b/files/temp-work-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coltongearhart/Desktop/exam5/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDED098-3E2A-5348-94F1-FA0F2ABF8A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AABBF-483B-B440-875D-2B21C872C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="10" xr2:uid="{BB8505BC-BCB7-B340-A120-C046C43AD7BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="13" xr2:uid="{BB8505BC-BCB7-B340-A120-C046C43AD7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1.1" sheetId="19" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="6.6.3" sheetId="28" r:id="rId9"/>
     <sheet name="6.7.1" sheetId="29" r:id="rId10"/>
     <sheet name="6.7.2" sheetId="30" r:id="rId11"/>
+    <sheet name="7.1.1" sheetId="31" r:id="rId12"/>
+    <sheet name="7.1.2" sheetId="32" r:id="rId13"/>
+    <sheet name="7.2.1" sheetId="33" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'6.2.1'!$B$2:$E$2</definedName>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="396">
   <si>
     <t>Total</t>
   </si>
@@ -1002,25 +1005,284 @@
   </si>
   <si>
     <t>=SUM(H4:H6)</t>
+  </si>
+  <si>
+    <t>Closed Claim Counts</t>
+  </si>
+  <si>
+    <t>Projected Ultimate Claim Counts</t>
+  </si>
+  <si>
+    <t>Cumulative Paid Claims (000s)</t>
+  </si>
+  <si>
+    <t>Cumulative Paid Claims ($000s)</t>
+  </si>
+  <si>
+    <t>Disposal rates</t>
+  </si>
+  <si>
+    <t>Selected DR</t>
+  </si>
+  <si>
+    <t>Adjusted cumulative Paid Claims ($000s)</t>
+  </si>
+  <si>
+    <t>-&gt; Decreasing claim settlement rates; when interpolating, always use downward adjustment</t>
+  </si>
+  <si>
+    <t>0 Months</t>
+  </si>
+  <si>
+    <t>Development factors</t>
+  </si>
+  <si>
+    <t>12-24 Months</t>
+  </si>
+  <si>
+    <t>24-36 Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY 2011 est ult claims = </t>
+  </si>
+  <si>
+    <t>=E5/$G5</t>
+  </si>
+  <si>
+    <t>=M3</t>
+  </si>
+  <si>
+    <t>=MIN(M4:M6)</t>
+  </si>
+  <si>
+    <t>=FORECAST($K$12,C13:D13,$J6:$K6)</t>
+  </si>
+  <si>
+    <t>=FORECAST($L$12,D12:E12,$K5:$L5)</t>
+  </si>
+  <si>
+    <t>=FORECAST($M$12,E11:F11,$L4:$M4)</t>
+  </si>
+  <si>
+    <t>=L17/K17</t>
+  </si>
+  <si>
+    <t>=K23</t>
+  </si>
+  <si>
+    <t>=AVERAGE(K24:K25)</t>
+  </si>
+  <si>
+    <t>=D13*PRODUCT(J29:K29)*1000</t>
+  </si>
+  <si>
+    <t>Parameter ("a";"b") for Two-Point Exponential Fit</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Adjusted closed claim counts</t>
+  </si>
+  <si>
+    <t>Adjusted cumulative paid claims</t>
+  </si>
+  <si>
+    <t>=Q52</t>
+  </si>
+  <si>
+    <t>=R38</t>
+  </si>
+  <si>
+    <t>=S37</t>
+  </si>
+  <si>
+    <t>=T36</t>
+  </si>
+  <si>
+    <t>=Y$35*$U36</t>
+  </si>
+  <si>
+    <t>=R45</t>
+  </si>
+  <si>
+    <t>=S44</t>
+  </si>
+  <si>
+    <t>=T43</t>
+  </si>
+  <si>
+    <t>=S59*EXP(T59*Y41)</t>
+  </si>
+  <si>
+    <t>=S59*EXP(T59*Z41)</t>
+  </si>
+  <si>
+    <t>Open Claim Counts</t>
+  </si>
+  <si>
+    <t>Average Case Outstading (000s)</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>-&gt; Does not trend with severity ==&gt; Need adjustment</t>
+  </si>
+  <si>
+    <t>Adjusted Average Case Outstading (000s)</t>
+  </si>
+  <si>
+    <t>Adjusted Cumulative Reported Claims (000s)</t>
+  </si>
+  <si>
+    <t>-&gt; Most recent diagonal should equal the original cumulative reported claims (unadjusted)</t>
+  </si>
+  <si>
+    <t>Development Factors</t>
+  </si>
+  <si>
+    <t>=(C6-C13)/C20</t>
+  </si>
+  <si>
+    <t>=H6/H5-1</t>
+  </si>
+  <si>
+    <t>=H$6*(1+$C$23)^($G20+(VALUE(LEFT(H$17,2))/12-1)-$G$20)</t>
+  </si>
+  <si>
+    <t>=I$5*(1+$C$23)^($G19+(VALUE(LEFT(I$17,2))/12-1)-$G$20)</t>
+  </si>
+  <si>
+    <t>=J$4*(1+$C$23)^($G18+(VALUE(LEFT(J$17,2))/12-1)-$G$20)</t>
+  </si>
+  <si>
+    <t>=H20*C20+C13</t>
+  </si>
+  <si>
+    <t>=I26/H26</t>
+  </si>
+  <si>
+    <t>=AVERAGE(H32:H33)</t>
+  </si>
+  <si>
+    <t>=H27*PRODUCT(H35:I35)*1000</t>
+  </si>
+  <si>
+    <t>Selected Ultimate Loss</t>
+  </si>
+  <si>
+    <t>Age in Months</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected loss CY = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valuation date (EOY) = </t>
+  </si>
+  <si>
+    <t>Latest CDF</t>
+  </si>
+  <si>
+    <t>=($C$16-B4+1)*12</t>
+  </si>
+  <si>
+    <t>=($C$18-B4)*12</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(F4,$B$10:$B$14,$C$10:$C$14)</t>
+  </si>
+  <si>
+    <t>=($C$18-B6+1)*12</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(H4,$B$10:$B$14,$C$10:$C$14)</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(E6,$B$10:$B$14,$C$10:$C$14)</t>
+  </si>
+  <si>
+    <t>=(C4-D4)*(1/I4-1/G4)/(1-1/J4)</t>
+  </si>
+  <si>
+    <t>=SUM(K4:K6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected loss date = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">t2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">t0 = </t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Expected Reported Claims to Emerge</t>
+  </si>
+  <si>
+    <t>=(O31-N19+1)*12</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(R18,$N$24:$N$28,$O$24:$O$28)</t>
+  </si>
+  <si>
+    <t>=(YEAR($O$34)-$N$19)*12</t>
+  </si>
+  <si>
+    <t>=(YEAR($O$34)-$N$19-1)*12</t>
+  </si>
+  <si>
+    <t>=(YEAR($O$34)-$N$19+1)*12</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(S24,$N$24:$N$28,$O$24:$O$28)</t>
+  </si>
+  <si>
+    <t>=$P$19+($O$19-$P$19)*(1/T24-1/$T$23)/(1-1/$S$18)</t>
+  </si>
+  <si>
+    <t>=LET(m,(MONTH(O34)-1)/12,S28*(1-m)+S29*m)</t>
+  </si>
+  <si>
+    <t>="AY 2021 Exp Paid Claims between "&amp;$S$23&amp;" - "&amp;S24&amp;" months = "</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1124,6 +1386,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1163,7 +1431,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1172,9 +1440,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1186,27 +1454,27 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1215,7 +1483,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1228,39 +1496,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,68 +1521,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1347,36 +1575,36 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1385,8 +1613,80 @@
     <xf numFmtId="6" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1873,42 +2173,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="51" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="61">
+      <c r="B3" s="111">
         <v>1</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="113">
         <v>44927</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="113">
         <v>45056</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="52">
         <v>45088</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="56">
         <v>50</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="56">
         <v>300</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1916,53 +2216,53 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="57">
+      <c r="B4" s="111"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="53">
         <v>45275</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="56">
         <v>120</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="56">
         <v>400</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="61" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="59">
+      <c r="B5" s="111"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="55">
         <v>45289</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="56">
         <v>0</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="56">
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="64">
+      <c r="B6" s="114">
         <v>2</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="112">
         <v>45000</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="112">
         <v>45038</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="55">
         <v>45063</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="56">
         <v>0</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="56">
         <v>350</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1970,30 +2270,30 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="64"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57">
+      <c r="B7" s="114"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="53">
         <v>45148</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="56">
         <v>110</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="56">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="64"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59">
+      <c r="B8" s="114"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="55">
         <v>45184</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="56">
         <v>0</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="56">
         <v>300</v>
       </c>
       <c r="I8" s="40" t="s">
@@ -2005,42 +2305,42 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="64"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59">
+      <c r="B9" s="114"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="55">
         <v>45234</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="56">
         <v>510</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="61">
+      <c r="B10" s="111">
         <v>3</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="112">
         <v>45048</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="112">
         <v>45152</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="55">
         <v>45171</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="56">
         <v>300</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="56">
         <v>440</v>
       </c>
       <c r="J10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="64">
         <f>SUMIF(E3:E12,"&lt;"&amp;F19,F3:F12)</f>
         <v>1300</v>
       </c>
@@ -2049,22 +2349,22 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="61"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="57">
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="53">
         <v>45206</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="56">
         <v>100</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="56">
         <v>300</v>
       </c>
       <c r="J11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="64">
         <f>SUMIFS(G3:G5,E3:E5,MAX(E3:E5))+ SUMIFS(G6:G9,E6:E9,MAX(E6:E9))+SUMIFS(G10:G12,E10:E12,MAX(E10:E12))</f>
         <v>500</v>
       </c>
@@ -2073,22 +2373,22 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="61"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="59">
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="55">
         <v>45281</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="56">
         <v>110</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="56">
         <v>0</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="64">
         <f>IF(_xlfn.XLOOKUP(MAX(E6:E9),E6:E9,G6:G9)=0,SUM(F6:F9),0)+IF(_xlfn.XLOOKUP(MAX(E10:E12),E10:E12,G10:G12)=0,SUM(F10:F12),0)</f>
         <v>1130</v>
       </c>
@@ -2097,21 +2397,21 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E14" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="60">
         <v>0.25</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="65">
         <f>(F14*K10)+(F15*(F14*K10))+(F16*K11)+(F17*K12)</f>
         <v>554.25</v>
       </c>
@@ -2123,23 +2423,23 @@
       <c r="E15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="60">
         <v>0.05</v>
       </c>
-      <c r="J15" s="71"/>
+      <c r="J15" s="63"/>
       <c r="K15" s="43"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="60">
         <v>0.2</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="66">
         <f>K11+J14</f>
         <v>1054.25</v>
       </c>
@@ -2151,19 +2451,19 @@
       <c r="E17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="60">
         <v>0.1</v>
       </c>
-      <c r="J17" s="66"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="43"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E18" s="40"/>
-      <c r="F18" s="66"/>
-      <c r="I18" s="70" t="s">
+      <c r="F18" s="58"/>
+      <c r="I18" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J18" s="67">
         <f>SUM(J16,K10)</f>
         <v>2354.25</v>
       </c>
@@ -2175,15 +2475,15 @@
       <c r="E19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="59">
         <v>45291</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2217,43 +2517,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="H2" s="119" t="s">
         <v>280</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="H3" s="89" t="s">
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="H3" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="89"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="2">
         <v>12</v>
       </c>
@@ -2266,17 +2566,17 @@
       <c r="F4" s="2">
         <v>48</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="92" t="s">
+      <c r="H4" s="118"/>
+      <c r="I4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="79" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2304,7 +2604,7 @@
         <v>0.75</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:K5" si="0">E5/D5</f>
+        <f t="shared" ref="J5" si="0">E5/D5</f>
         <v>0.5</v>
       </c>
       <c r="K5" s="8">
@@ -2333,14 +2633,14 @@
         <v>1998</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" ref="I6:J7" si="1">D6/C6</f>
+        <f t="shared" ref="I6" si="1">D6/C6</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="J6" s="8">
         <f>E6/D6</f>
         <v>0.6</v>
       </c>
-      <c r="K6" s="125"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -2362,7 +2662,7 @@
         <f>D7/C7</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="J7" s="125"/>
+      <c r="J7" s="109"/>
       <c r="K7" s="6"/>
       <c r="L7" s="15"/>
     </row>
@@ -2388,7 +2688,7 @@
         <v>24</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" ref="J10:K10" si="2">VALUE(RIGHT(J11,2))</f>
+        <f t="shared" ref="J10" si="2">VALUE(RIGHT(J11,2))</f>
         <v>36</v>
       </c>
       <c r="K10" s="5">
@@ -2408,7 +2708,7 @@
         <v>12-24</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="shared" ref="J11:K11" si="3">J4</f>
+        <f t="shared" ref="J11" si="3">J4</f>
         <v>24-36</v>
       </c>
       <c r="K11" s="9" t="str">
@@ -2420,13 +2720,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
       <c r="H12" s="3" t="s">
         <v>26</v>
       </c>
@@ -2435,7 +2735,7 @@
         <v>0.78968253968253965</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" ref="J12:K12" si="4">AVERAGE(J5:J8)</f>
+        <f t="shared" ref="J12" si="4">AVERAGE(J5:J8)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="K12" s="9">
@@ -2447,22 +2747,22 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
       <c r="H13" s="3"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="89"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -2496,13 +2796,13 @@
       <c r="F15" s="15">
         <v>50</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15">
@@ -2518,15 +2818,15 @@
         <v>100</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15">
@@ -2540,7 +2840,7 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="H17" s="89"/>
+      <c r="H17" s="118"/>
       <c r="I17" s="2">
         <v>12</v>
       </c>
@@ -2625,7 +2925,7 @@
         <v>151.25</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L19:L21" si="6">K20*_xlfn.XLOOKUP(L$17,$I$10:$K$10,$I$12:$K$12)</f>
+        <f t="shared" ref="L20:L21" si="6">K20*_xlfn.XLOOKUP(L$17,$I$10:$K$10,$I$12:$K$12)</f>
         <v>50.416666666666664</v>
       </c>
     </row>
@@ -2663,37 +2963,37 @@
       <c r="K22" s="15"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="89"/>
-      <c r="I26" s="92" t="s">
+      <c r="H26" s="118"/>
+      <c r="I26" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="92" t="s">
+      <c r="J26" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="92" t="s">
+      <c r="K26" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="92" t="s">
+      <c r="L26" s="79" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2706,14 +3006,14 @@
         <v>0.375</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" ref="J27:L27" si="7">E15/D5</f>
+        <f t="shared" ref="J27" si="7">E15/D5</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="K27" s="8">
         <f>F15/E5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L27" s="85" t="s">
+      <c r="L27" s="74" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2722,7 +3022,7 @@
         <v>1998</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" ref="I28:K30" si="8">D16/C6</f>
+        <f t="shared" ref="I28:J29" si="8">D16/C6</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="J28" s="8">
@@ -2763,7 +3063,7 @@
         <v>24</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32:L32" si="9">VALUE(RIGHT(J33,2))</f>
+        <f t="shared" ref="J32" si="9">VALUE(RIGHT(J33,2))</f>
         <v>36</v>
       </c>
       <c r="K32" s="5">
@@ -2794,7 +3094,7 @@
         <f t="shared" si="10"/>
         <v>36-48</v>
       </c>
-      <c r="L33" s="123" t="s">
+      <c r="L33" s="107" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2807,7 +3107,7 @@
         <v>0.31865079365079363</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" ref="J34:L34" si="11">AVERAGE(J27:J30)</f>
+        <f t="shared" ref="J34" si="11">AVERAGE(J27:J30)</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="K34" s="9">
@@ -2828,27 +3128,27 @@
       </c>
     </row>
     <row r="37" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H38" s="89" t="s">
+      <c r="H38" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H39" s="89"/>
+      <c r="H39" s="118"/>
       <c r="I39" s="2">
         <v>12</v>
       </c>
@@ -2907,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="L41" s="13">
-        <f t="shared" ref="K40:M43" si="12">K19*_xlfn.XLOOKUP(L$39,$I$32:$L$32,$I$34:$L$34)</f>
+        <f t="shared" ref="K41:M43" si="12">K19*_xlfn.XLOOKUP(L$39,$I$32:$L$32,$I$34:$L$34)</f>
         <v>100</v>
       </c>
       <c r="M41" s="13">
@@ -2915,7 +3215,7 @@
         <v>62.5</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" ref="N41:N43" si="13">SUM(I41:M41)</f>
+        <f t="shared" ref="N41:N42" si="13">SUM(I41:M41)</f>
         <v>467.5</v>
       </c>
     </row>
@@ -2986,7 +3286,7 @@
       <c r="M47" t="s">
         <v>286</v>
       </c>
-      <c r="N47" s="124">
+      <c r="N47" s="108">
         <f>SUM(N40:N43)</f>
         <v>2039.3171296296298</v>
       </c>
@@ -2996,11 +3296,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:H17"/>
@@ -3008,12 +3309,11 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:L25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3023,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0D02BF-65D5-FD4F-8422-5C293C3E16AA}">
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -3042,10 +3342,10 @@
       <c r="D2" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="122" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="127"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="7" t="s">
         <v>307</v>
       </c>
@@ -3164,7 +3464,7 @@
       <c r="G8" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="H8" s="126">
+      <c r="H8" s="110">
         <f>SUM(H4:H6)</f>
         <v>154350.00000000006</v>
       </c>
@@ -3205,7 +3505,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <f t="shared" ref="A11:A12" si="3">VALUE(LEFT(B11,2))</f>
+        <f t="shared" ref="A11" si="3">VALUE(LEFT(B11,2))</f>
         <v>24</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -3246,6 +3546,2070 @@
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AD5594-74B6-9141-BB6F-DB35FBFE2B3F}">
+  <dimension ref="B2:AB59"/>
+  <sheetViews>
+    <sheetView topLeftCell="O32" workbookViewId="0">
+      <selection activeCell="AG69" sqref="AG69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="13" width="12.83203125" customWidth="1"/>
+    <col min="17" max="20" width="10.83203125" customWidth="1"/>
+    <col min="25" max="26" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="121" t="s">
+        <v>311</v>
+      </c>
+      <c r="I2" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="119" t="s">
+        <v>314</v>
+      </c>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+    </row>
+    <row r="3" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="121"/>
+      <c r="C3" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>425</v>
+      </c>
+      <c r="E4" s="15">
+        <v>700</v>
+      </c>
+      <c r="F4" s="15">
+        <v>850</v>
+      </c>
+      <c r="G4" s="15">
+        <v>850</v>
+      </c>
+      <c r="I4" s="15">
+        <v>2009</v>
+      </c>
+      <c r="J4" s="13">
+        <f>C4/$G4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <f>D4/$G4</f>
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="8">
+        <f>E4/$G4</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="M4" s="8">
+        <f>F4/$G4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>400</v>
+      </c>
+      <c r="E5" s="15">
+        <v>693</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
+        <v>887</v>
+      </c>
+      <c r="I5" s="15">
+        <v>2010</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J6" si="0">C5/$G5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K6" si="1">D5/$G5</f>
+        <v>0.45095828635851182</v>
+      </c>
+      <c r="L5" s="8">
+        <f>E5/$G5</f>
+        <v>0.7812852311161218</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>373</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>901</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2011</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.41398446170921199</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="125"/>
+    </row>
+    <row r="10" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="121"/>
+      <c r="C10" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4200</v>
+      </c>
+      <c r="E11" s="22">
+        <v>8580</v>
+      </c>
+      <c r="F11" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>J3</f>
+        <v>0 Months</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f>K3</f>
+        <v>12 Months</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f>L3</f>
+        <v>24 Months</v>
+      </c>
+      <c r="M11" s="5" t="str">
+        <f>M3</f>
+        <v>36 Months</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>3950</v>
+      </c>
+      <c r="E12" s="22">
+        <v>7030</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="I12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J12" s="9">
+        <f>MIN(J4:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <f>MIN(K4:K6)</f>
+        <v>0.41398446170921199</v>
+      </c>
+      <c r="L12" s="9">
+        <f>MIN(L4:L6)</f>
+        <v>0.7812852311161218</v>
+      </c>
+      <c r="M12" s="9">
+        <f>MIN(M4:M6)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3900</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="I15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="119" t="s">
+        <v>316</v>
+      </c>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="125"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I16" s="48"/>
+      <c r="J16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I17" s="15">
+        <v>2009</v>
+      </c>
+      <c r="J17" s="24">
+        <f>FORECAST($K$12,C11:D11,$J4:$K4)</f>
+        <v>3477.4694783573809</v>
+      </c>
+      <c r="K17" s="24">
+        <f>FORECAST($L$12,D11:E11,$K4:$L4)</f>
+        <v>8008.0906016193512</v>
+      </c>
+      <c r="L17" s="24">
+        <f>FORECAST($M$12,E11:F11,$L4:$M4)</f>
+        <v>10000</v>
+      </c>
+      <c r="M17" s="130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I18" s="15">
+        <v>2010</v>
+      </c>
+      <c r="J18" s="24">
+        <f>FORECAST($K$12,C12:D12,$J5:$K5)</f>
+        <v>3626.1416481687015</v>
+      </c>
+      <c r="K18" s="24">
+        <f>FORECAST($L$12,D12:E12,$K5:$L5)</f>
+        <v>7030</v>
+      </c>
+      <c r="L18" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I19" s="15">
+        <v>2011</v>
+      </c>
+      <c r="J19" s="24">
+        <f>FORECAST($K$12,C13:D13,$J6:$K6)</f>
+        <v>3900</v>
+      </c>
+      <c r="K19" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="21" spans="9:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="9:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="I22" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="K22" s="119"/>
+      <c r="L22" s="125"/>
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I23" s="48"/>
+      <c r="J23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I24" s="15">
+        <v>2009</v>
+      </c>
+      <c r="J24" s="126">
+        <f>K17/J17</f>
+        <v>2.3028500038487918</v>
+      </c>
+      <c r="K24" s="126">
+        <f>L17/K17</f>
+        <v>1.2487371206786617</v>
+      </c>
+      <c r="L24" s="129" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I25" s="15">
+        <v>2010</v>
+      </c>
+      <c r="J25" s="126">
+        <f t="shared" ref="J25" si="2">K18/J18</f>
+        <v>1.9386997757107305</v>
+      </c>
+      <c r="K25" s="126"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I26" s="15"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f>J23</f>
+        <v>12-24 Months</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>K23</f>
+        <v>24-36 Months</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="127">
+        <f>AVERAGE(J24:J25)</f>
+        <v>2.1207748897797609</v>
+      </c>
+      <c r="K29" s="127">
+        <f>AVERAGE(K24:K25)</f>
+        <v>1.2487371206786617</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>322</v>
+      </c>
+      <c r="J32" s="25">
+        <f>D13*PRODUCT(J29:K29)*1000</f>
+        <v>10328332.28493762</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="X33" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P34" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="R34" s="119"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="121" t="s">
+        <v>311</v>
+      </c>
+      <c r="W34" t="s">
+        <v>70</v>
+      </c>
+      <c r="X34" t="str" cm="1">
+        <f t="array" ref="X34:AA34">Q35:T35</f>
+        <v>0 Months</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>12 Months</v>
+      </c>
+      <c r="Z34" t="str">
+        <v>24 Months</v>
+      </c>
+      <c r="AA34" t="str">
+        <v>36 Months</v>
+      </c>
+    </row>
+    <row r="35" spans="16:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="P35" s="121"/>
+      <c r="Q35" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U35" s="121"/>
+      <c r="W35" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" s="5">
+        <f>Q52</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="5">
+        <f>R52</f>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="Z35" s="5">
+        <f>S51</f>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AA35" s="9">
+        <f>T50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P36" s="15">
+        <v>2009</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0</v>
+      </c>
+      <c r="R36" s="15">
+        <v>350</v>
+      </c>
+      <c r="S36" s="15">
+        <v>700</v>
+      </c>
+      <c r="T36" s="15">
+        <v>850</v>
+      </c>
+      <c r="U36" s="15">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="37" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P37" s="15">
+        <v>2010</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>400</v>
+      </c>
+      <c r="S37" s="15">
+        <v>693</v>
+      </c>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15">
+        <v>887</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P38" s="15">
+        <v>2011</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>0</v>
+      </c>
+      <c r="R38" s="15">
+        <v>490</v>
+      </c>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15">
+        <v>901</v>
+      </c>
+      <c r="W38" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="119" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y38" s="119"/>
+      <c r="Z38" s="119"/>
+      <c r="AA38" s="119"/>
+    </row>
+    <row r="39" spans="16:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="W39" s="121"/>
+      <c r="X39" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="W40" s="15">
+        <v>2009</v>
+      </c>
+      <c r="X40" s="13">
+        <f>X$35*$U36</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="13">
+        <f>Y$35*$U36</f>
+        <v>462.40000000000003</v>
+      </c>
+      <c r="Z40" s="13">
+        <f t="shared" ref="Y40:AA41" si="3">Z$35*$U36</f>
+        <v>663.85</v>
+      </c>
+      <c r="AA40" s="13">
+        <f>T36</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="41" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P41" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="R41" s="119"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="119"/>
+      <c r="W41" s="15">
+        <v>2010</v>
+      </c>
+      <c r="X41" s="13">
+        <f t="shared" ref="X41:Y42" si="4">X$35*$U37</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="13">
+        <f t="shared" si="4"/>
+        <v>482.52800000000002</v>
+      </c>
+      <c r="Z41" s="13">
+        <f>S37</f>
+        <v>693</v>
+      </c>
+      <c r="AA41" s="89" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="16:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="P42" s="121"/>
+      <c r="Q42" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W42" s="15">
+        <v>2011</v>
+      </c>
+      <c r="X42" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="13">
+        <f>R38</f>
+        <v>490</v>
+      </c>
+      <c r="Z42" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA42" s="32"/>
+    </row>
+    <row r="43" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P43" s="15">
+        <v>2009</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>0</v>
+      </c>
+      <c r="R43" s="22">
+        <v>4200</v>
+      </c>
+      <c r="S43" s="22">
+        <v>8580</v>
+      </c>
+      <c r="T43" s="22">
+        <v>10000</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P44" s="15">
+        <v>2010</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>0</v>
+      </c>
+      <c r="R44" s="22">
+        <v>3950</v>
+      </c>
+      <c r="S44" s="22">
+        <v>7030</v>
+      </c>
+      <c r="T44" s="15"/>
+    </row>
+    <row r="45" spans="16:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P45" s="15">
+        <v>2011</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>0</v>
+      </c>
+      <c r="R45" s="22">
+        <v>3900</v>
+      </c>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="W45" s="132"/>
+      <c r="X45" s="125"/>
+      <c r="Y45" s="133" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z45" s="133" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA45" s="125"/>
+    </row>
+    <row r="46" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="W46" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="X46" s="119" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y46" s="119"/>
+      <c r="Z46" s="119"/>
+      <c r="AA46" s="119"/>
+      <c r="AB46" s="2"/>
+    </row>
+    <row r="47" spans="16:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="W47" s="121"/>
+      <c r="X47" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P48" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="119" t="s">
+        <v>314</v>
+      </c>
+      <c r="R48" s="119"/>
+      <c r="S48" s="119"/>
+      <c r="T48" s="119"/>
+      <c r="W48" s="15">
+        <v>2009</v>
+      </c>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="73">
+        <f>S59*EXP(T59*Y41)</f>
+        <v>4652.0368242502054</v>
+      </c>
+      <c r="Z48" s="73">
+        <f>S59*EXP(T59*Z41)</f>
+        <v>7042.3011905357334</v>
+      </c>
+      <c r="AA48" s="73">
+        <f>T43</f>
+        <v>10000</v>
+      </c>
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="16:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="P49" s="121"/>
+      <c r="Q49" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="15">
+        <v>2010</v>
+      </c>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="73">
+        <f>S59*EXP(T59*Y42)</f>
+        <v>4721.0205309649773</v>
+      </c>
+      <c r="Z49" s="73">
+        <f>S44</f>
+        <v>7030</v>
+      </c>
+      <c r="AA49" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P50" s="15">
+        <v>2009</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>0</v>
+      </c>
+      <c r="R50" s="15">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="S50" s="15">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="T50" s="71">
+        <v>1</v>
+      </c>
+      <c r="W50" s="15">
+        <v>2011</v>
+      </c>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="73">
+        <f>R45</f>
+        <v>3900</v>
+      </c>
+      <c r="Z50" s="89" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA50" s="32"/>
+    </row>
+    <row r="51" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P51" s="15">
+        <v>2010</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="T51" s="15"/>
+      <c r="Y51" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P52" s="15">
+        <v>2011</v>
+      </c>
+      <c r="Q52" s="15">
+        <v>0</v>
+      </c>
+      <c r="R52" s="15">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+    </row>
+    <row r="55" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P55" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="119" t="s">
+        <v>333</v>
+      </c>
+      <c r="R55" s="119"/>
+      <c r="S55" s="119"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="119"/>
+      <c r="V55" s="119"/>
+    </row>
+    <row r="56" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P56" s="121"/>
+      <c r="Q56" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="R56" s="119"/>
+      <c r="S56" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="T56" s="119"/>
+      <c r="U56" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="V56" s="119"/>
+    </row>
+    <row r="57" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P57" s="121"/>
+      <c r="Q57" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P58" s="15">
+        <v>2009</v>
+      </c>
+      <c r="S58" s="124">
+        <v>1392.49</v>
+      </c>
+      <c r="T58" s="131">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="U58" s="124">
+        <v>4198.5</v>
+      </c>
+      <c r="V58" s="131">
+        <v>1.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P59" s="15">
+        <v>2010</v>
+      </c>
+      <c r="S59" s="124">
+        <v>1798.09</v>
+      </c>
+      <c r="T59" s="131">
+        <v>1.97E-3</v>
+      </c>
+      <c r="U59" s="124"/>
+      <c r="V59" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="X46:AA46"/>
+    <mergeCell ref="P55:P57"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q55:V55"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502907D5-7044-6F4F-8070-4752998513AA}">
+  <dimension ref="B2:J39"/>
+  <sheetViews>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="G2" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="121"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="121"/>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C4" s="33">
+        <v>9931</v>
+      </c>
+      <c r="D4" s="33">
+        <v>11583</v>
+      </c>
+      <c r="E4" s="33">
+        <v>13053</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2009</v>
+      </c>
+      <c r="H4" s="136">
+        <f>(C4-C11)/C18</f>
+        <v>18.028985507246375</v>
+      </c>
+      <c r="I4" s="136">
+        <f t="shared" ref="I4:J4" si="0">(D4-D11)/D18</f>
+        <v>16.982035928143713</v>
+      </c>
+      <c r="J4" s="136">
+        <f t="shared" si="0"/>
+        <v>23.166666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="33">
+        <v>12967</v>
+      </c>
+      <c r="D5" s="33">
+        <v>17391</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="G5" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H5" s="136">
+        <f t="shared" ref="H5:I5" si="1">(C5-C12)/C19</f>
+        <v>19.044088176352705</v>
+      </c>
+      <c r="I5" s="136">
+        <f t="shared" si="1"/>
+        <v>23.985714285714284</v>
+      </c>
+      <c r="J5" s="135"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C6" s="33">
+        <v>12924</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="G6" s="15">
+        <v>2011</v>
+      </c>
+      <c r="H6" s="136">
+        <f>(C6-C13)/C20</f>
+        <v>22.519540229885056</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>357</v>
+      </c>
+      <c r="J6" s="135"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="G9" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="121"/>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="121"/>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C11" s="33">
+        <v>3711</v>
+      </c>
+      <c r="D11" s="33">
+        <v>8747</v>
+      </c>
+      <c r="E11" s="33">
+        <v>12358</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="137">
+        <f>H5/H4-1</f>
+        <v>5.6303926180335084E-2</v>
+      </c>
+      <c r="I11" s="137">
+        <f>I5/I4-1</f>
+        <v>0.41241688494861961</v>
+      </c>
+      <c r="J11" s="136"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="33">
+        <v>3464</v>
+      </c>
+      <c r="D12" s="33">
+        <v>8996</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="G12" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" s="137">
+        <f>H6/H5-1</f>
+        <v>0.18249506205541866</v>
+      </c>
+      <c r="I12" s="139" t="s">
+        <v>358</v>
+      </c>
+      <c r="J12" s="135"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C13" s="33">
+        <v>3128</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="G16" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="121"/>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="121"/>
+      <c r="H17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C18" s="15">
+        <v>345</v>
+      </c>
+      <c r="D18" s="15">
+        <v>167</v>
+      </c>
+      <c r="E18" s="15">
+        <v>30</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2009</v>
+      </c>
+      <c r="H18" s="136">
+        <f>H$6*(1+$C$23)^($G18+(VALUE(LEFT(H$17,2))/12-1)-$G$20)</f>
+        <v>19.306876054428201</v>
+      </c>
+      <c r="I18" s="136">
+        <f>I$5*(1+$C$23)^($G18+(VALUE(LEFT(I$17,2))/12-1)-$G$20)</f>
+        <v>22.208994708994705</v>
+      </c>
+      <c r="J18" s="136">
+        <f>J$4*(1+$C$23)^($G18+(VALUE(LEFT(J$17,2))/12-1)-$G$20)</f>
+        <v>23.166666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C19" s="15">
+        <v>499</v>
+      </c>
+      <c r="D19" s="15">
+        <v>350</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="G19" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H19" s="136">
+        <f t="shared" ref="H19" si="2">H$6*(1+$C$23)^($G19+(VALUE(LEFT(H$17,2))/12-1)-$G$20)</f>
+        <v>20.851426138782458</v>
+      </c>
+      <c r="I19" s="136">
+        <f>I$5*(1+$C$23)^($G19+(VALUE(LEFT(I$17,2))/12-1)-$G$20)</f>
+        <v>23.985714285714284</v>
+      </c>
+      <c r="J19" s="138" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C20" s="15">
+        <v>435</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="G20" s="15">
+        <v>2011</v>
+      </c>
+      <c r="H20" s="136">
+        <f>H$6*(1+$C$23)^($G20+(VALUE(LEFT(H$17,2))/12-1)-$G$20)</f>
+        <v>22.519540229885056</v>
+      </c>
+      <c r="I20" s="138" t="s">
+        <v>360</v>
+      </c>
+      <c r="J20" s="135"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="77">
+        <v>0.08</v>
+      </c>
+      <c r="G23" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G24" s="121"/>
+      <c r="H24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G25" s="15">
+        <v>2009</v>
+      </c>
+      <c r="H25" s="135">
+        <f>H18*C18+C11</f>
+        <v>10371.872238777731</v>
+      </c>
+      <c r="I25" s="135">
+        <f t="shared" ref="I25" si="3">I18*D18+D11</f>
+        <v>12455.902116402116</v>
+      </c>
+      <c r="J25" s="135">
+        <f>J18*E18+E11</f>
+        <v>13053</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G26" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H26" s="135">
+        <f t="shared" ref="H26:I26" si="4">H19*C19+C12</f>
+        <v>13868.861643252447</v>
+      </c>
+      <c r="I26" s="135">
+        <f t="shared" si="4"/>
+        <v>17391</v>
+      </c>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G27" s="15">
+        <v>2011</v>
+      </c>
+      <c r="H27" s="135">
+        <f>H20*C20+C13</f>
+        <v>12924</v>
+      </c>
+      <c r="I27" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G30" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="119" t="s">
+        <v>356</v>
+      </c>
+      <c r="I30" s="119"/>
+      <c r="J30" s="125"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G31" s="121"/>
+      <c r="H31" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G32" s="15">
+        <v>2009</v>
+      </c>
+      <c r="H32" s="8">
+        <f>I25/H25</f>
+        <v>1.2009309244894804</v>
+      </c>
+      <c r="I32" s="8">
+        <f>J25/I25</f>
+        <v>1.0479369441103441</v>
+      </c>
+      <c r="J32" s="135"/>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H33" s="8">
+        <f>I26/H26</f>
+        <v>1.2539601625098886</v>
+      </c>
+      <c r="I33" s="128" t="s">
+        <v>363</v>
+      </c>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="8">
+        <f>AVERAGE(H32:H33)</f>
+        <v>1.2274455434996845</v>
+      </c>
+      <c r="I35" s="8">
+        <f>AVERAGE(I32:I33)</f>
+        <v>1.0479369441103441</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H36" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G38" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="25">
+        <f>H27*PRODUCT(H35:I35)*1000</f>
+        <v>16623954.214494271</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H39" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A016A7-C8AA-ED46-A2E2-725744060BCF}">
+  <dimension ref="B1:U34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M14" workbookViewId="0">
+      <selection activeCell="AC47" sqref="AC47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I1" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E2" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="16">
+        <v>410000</v>
+      </c>
+      <c r="D4" s="16">
+        <v>345000</v>
+      </c>
+      <c r="E4" s="140">
+        <f>($C$16-B4+1)*12</f>
+        <v>36</v>
+      </c>
+      <c r="F4" s="5">
+        <f>($C$18-B4)*12</f>
+        <v>48</v>
+      </c>
+      <c r="G4" s="5">
+        <f>_xlfn.XLOOKUP(F4,$B$10:$B$14,$C$10:$C$14)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H4" s="5">
+        <f>($C$18-B4+1)*12</f>
+        <v>60</v>
+      </c>
+      <c r="I4" s="5">
+        <f>_xlfn.XLOOKUP(H4,$B$10:$B$14,$C$10:$C$14)</f>
+        <v>1.05</v>
+      </c>
+      <c r="J4" s="5">
+        <f>_xlfn.XLOOKUP(E4,$B$10:$B$14,$C$10:$C$14)</f>
+        <v>1.35</v>
+      </c>
+      <c r="K4" s="18">
+        <f>(C4-D4)*(1/I4-1/G4)/(1-1/J4)</f>
+        <v>20763.087843833149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="16">
+        <v>390000</v>
+      </c>
+      <c r="D5" s="16">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="140">
+        <f t="shared" ref="E5:E6" si="0">($C$16-B5+1)*12</f>
+        <v>24</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F6" si="1">($C$18-B5)*12</f>
+        <v>36</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:I6" si="2">_xlfn.XLOOKUP(F5,$B$10:$B$14,$C$10:$C$14)</f>
+        <v>1.35</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5" si="3">($C$18-B5+1)*12</f>
+        <v>48</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5" si="4">_xlfn.XLOOKUP(E5,$B$10:$B$14,$C$10:$C$14)</f>
+        <v>1.6</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" ref="K5:K6" si="5">(C5-D5)*(1/I5-1/G5)/(1-1/J5)</f>
+        <v>30917.874396135299</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="16">
+        <v>400000</v>
+      </c>
+      <c r="D6" s="16">
+        <v>235000</v>
+      </c>
+      <c r="E6" s="140">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="H6" s="5">
+        <f>($C$18-B6+1)*12</f>
+        <v>36</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="J6" s="5">
+        <f>_xlfn.XLOOKUP(E6,$B$10:$B$14,$C$10:$C$14)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="5"/>
+        <v>38194.444444444431</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F7" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="15">
+        <v>12</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="142">
+        <f>SUM(K4:K6)</f>
+        <v>89875.406684412883</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>36</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>48</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>60</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="134">
+        <v>2022</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N17" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="134">
+        <v>2024</v>
+      </c>
+      <c r="N18" s="15">
+        <v>2020</v>
+      </c>
+      <c r="O18" s="16">
+        <v>410000</v>
+      </c>
+      <c r="P18" s="16">
+        <v>245000</v>
+      </c>
+      <c r="R18" s="5">
+        <f>(O31-N19+1)*12</f>
+        <v>24</v>
+      </c>
+      <c r="S18" s="5">
+        <f>_xlfn.XLOOKUP(R18,$N$24:$N$28,$O$24:$O$28)</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N19" s="15">
+        <v>2021</v>
+      </c>
+      <c r="O19" s="16">
+        <v>390000</v>
+      </c>
+      <c r="P19" s="16">
+        <v>200000</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N20" s="15">
+        <v>2022</v>
+      </c>
+      <c r="O20" s="16">
+        <v>400000</v>
+      </c>
+      <c r="P20" s="16">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S22" t="s">
+        <v>385</v>
+      </c>
+      <c r="T22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N23" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="143" t="s">
+        <v>390</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="S23" s="14">
+        <f>(YEAR($O$34)-$N$19-1)*12</f>
+        <v>24</v>
+      </c>
+      <c r="T23" s="5">
+        <f>_xlfn.XLOOKUP(S23,$N$24:$N$28,$O$24:$O$28)</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N24" s="15">
+        <v>12</v>
+      </c>
+      <c r="O24" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="Q24" s="143" t="s">
+        <v>389</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="S24" s="14">
+        <f>(YEAR($O$34)-$N$19)*12</f>
+        <v>36</v>
+      </c>
+      <c r="T24" s="5">
+        <f>_xlfn.XLOOKUP(S24,$N$24:$N$28,$O$24:$O$28)</f>
+        <v>1.75</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N25" s="15">
+        <v>24</v>
+      </c>
+      <c r="O25" s="15">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q25" s="143" t="s">
+        <v>391</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="S25" s="14">
+        <f>(YEAR($O$34)-$N$19+1)*12</f>
+        <v>48</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" ref="T24:T25" si="6">_xlfn.XLOOKUP(S25,$N$24:$N$28,$O$24:$O$28)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N26" s="15">
+        <v>36</v>
+      </c>
+      <c r="O26" s="15">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N27" s="15">
+        <v>48</v>
+      </c>
+      <c r="O27" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="R27" s="145" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N28" s="15">
+        <v>60</v>
+      </c>
+      <c r="O28" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R28" s="144" t="str">
+        <f>"AY 2021 Exp Paid Claims between "&amp;$S$23&amp;" - "&amp;S24&amp;" months = "</f>
+        <v xml:space="preserve">AY 2021 Exp Paid Claims between 24 - 36 months = </v>
+      </c>
+      <c r="S28" s="18">
+        <f>$P$19+($O$19-$P$19)*(1/T24-1/$T$23)/(1-1/$S$18)</f>
+        <v>231020.40816326527</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R29" s="144" t="str">
+        <f>"AY 2021 Exp Paid Claims between "&amp;$S$23&amp;" - "&amp;S25&amp;" months = "</f>
+        <v xml:space="preserve">AY 2021 Exp Paid Claims between 24 - 48 months = </v>
+      </c>
+      <c r="S29" s="18">
+        <f>$P$19+($O$19-$P$19)*(1/T25-1/$T$23)/(1-1/$S$18)</f>
+        <v>284013.60544217686</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="N31" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="O31" s="134">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R32" s="12" t="str">
+        <f>"AY 2021 Exp Paid Claims as of "&amp;S24+MONTH(O34)&amp;" months = "</f>
+        <v xml:space="preserve">AY 2021 Exp Paid Claims as of 40 months = </v>
+      </c>
+      <c r="S32" s="25">
+        <f>_xlfn.LET(_xlpm.m,(MONTH(O34)-1)/12,S28*(1-_xlpm.m)+S29*_xlpm.m)</f>
+        <v>244268.70748299314</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N34" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="O34" s="141">
+        <v>45383</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3273,7 +5637,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="39" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -3296,8 +5660,8 @@
       <c r="D3" s="33">
         <v>1200</v>
       </c>
-      <c r="E3" s="79">
-        <f>(YEAR(B3)-C3)*12+12</f>
+      <c r="E3" s="69">
+        <f t="shared" ref="E3:E12" si="0">(YEAR(B3)-C3)*12+12</f>
         <v>12</v>
       </c>
     </row>
@@ -3311,8 +5675,8 @@
       <c r="D4" s="33">
         <v>600</v>
       </c>
-      <c r="E4" s="79">
-        <f>(YEAR(B4)-C4)*12+12</f>
+      <c r="E4" s="69">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -3326,8 +5690,8 @@
       <c r="D5" s="33">
         <v>2000</v>
       </c>
-      <c r="E5" s="79">
-        <f>(YEAR(B5)-C5)*12+12</f>
+      <c r="E5" s="69">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -3341,8 +5705,8 @@
       <c r="D6" s="33">
         <v>150</v>
       </c>
-      <c r="E6" s="79">
-        <f>(YEAR(B6)-C6)*12+12</f>
+      <c r="E6" s="69">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -3356,8 +5720,8 @@
       <c r="D7" s="33">
         <v>700</v>
       </c>
-      <c r="E7" s="79">
-        <f>(YEAR(B7)-C7)*12+12</f>
+      <c r="E7" s="69">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -3371,8 +5735,8 @@
       <c r="D8" s="33">
         <v>1800</v>
       </c>
-      <c r="E8" s="79">
-        <f>(YEAR(B8)-C8)*12+12</f>
+      <c r="E8" s="69">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -3386,8 +5750,8 @@
       <c r="D9" s="33">
         <v>75</v>
       </c>
-      <c r="E9" s="79">
-        <f>(YEAR(B9)-C9)*12+12</f>
+      <c r="E9" s="69">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -3401,8 +5765,8 @@
       <c r="D10" s="33">
         <v>250</v>
       </c>
-      <c r="E10" s="79">
-        <f>(YEAR(B10)-C10)*12+12</f>
+      <c r="E10" s="69">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -3416,8 +5780,8 @@
       <c r="D11" s="33">
         <v>600</v>
       </c>
-      <c r="E11" s="79">
-        <f>(YEAR(B11)-C11)*12+12</f>
+      <c r="E11" s="69">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -3431,8 +5795,8 @@
       <c r="D12" s="33">
         <v>1300</v>
       </c>
-      <c r="E12" s="79">
-        <f>(YEAR(B12)-C12)*12+12</f>
+      <c r="E12" s="69">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -3442,27 +5806,27 @@
       <c r="D13" s="16"/>
     </row>
     <row r="15" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="H15" s="77" t="s">
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="H15" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="77"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="39" t="s">
         <v>4</v>
       </c>
@@ -3475,17 +5839,17 @@
       <c r="F16" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="82" t="s">
+      <c r="H16" s="117"/>
+      <c r="I16" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="82" t="s">
+      <c r="J16" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="82" t="s">
+      <c r="K16" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="82" t="s">
+      <c r="L16" s="72" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3513,14 +5877,14 @@
         <v>1.4615384615384615</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" ref="J17:L18" si="0">E17/D17</f>
+        <f t="shared" ref="J17" si="1">E17/D17</f>
         <v>1.131578947368421</v>
       </c>
       <c r="K17" s="8">
         <f>F17/E17</f>
         <v>1.0348837209302326</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="74" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3542,14 +5906,14 @@
         <v>2016</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" ref="I18:J20" si="1">D18/C18</f>
+        <f t="shared" ref="I18" si="2">D18/C18</f>
         <v>1.3888888888888888</v>
       </c>
       <c r="J18" s="8">
         <f>E18/D18</f>
         <v>1.06</v>
       </c>
-      <c r="K18" s="85" t="s">
+      <c r="K18" s="74" t="s">
         <v>77</v>
       </c>
       <c r="L18" s="33"/>
@@ -3561,7 +5925,7 @@
       <c r="C19" s="33">
         <v>2000</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="70">
         <f>SUM(D4:D5)</f>
         <v>2600</v>
       </c>
@@ -3576,7 +5940,7 @@
         <f>D19/C19</f>
         <v>1.3</v>
       </c>
-      <c r="J19" s="85" t="s">
+      <c r="J19" s="74" t="s">
         <v>76</v>
       </c>
       <c r="K19" s="15"/>
@@ -3625,7 +5989,7 @@
       <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="73">
         <f>SUM(D17:D19)/SUM(C17:C19)</f>
         <v>1.3725490196078431</v>
       </c>
@@ -3681,7 +6045,7 @@
       <c r="J28" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K28" s="84">
+      <c r="K28" s="29">
         <f>C20*C28</f>
         <v>1849.9764705882355</v>
       </c>
@@ -3714,19 +6078,19 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O32" s="87" t="s">
+      <c r="O32" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="54" t="s">
+      <c r="P32" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
     </row>
     <row r="33" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O33" s="87"/>
+      <c r="O33" s="115"/>
       <c r="P33" s="39" t="s">
         <v>4</v>
       </c>
@@ -3823,29 +6187,29 @@
       <c r="S38" s="15"/>
     </row>
     <row r="40" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O40" s="87" t="s">
+      <c r="O40" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="54" t="s">
+      <c r="P40" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
     </row>
     <row r="41" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O41" s="87"/>
-      <c r="P41" s="82" t="s">
+      <c r="O41" s="115"/>
+      <c r="P41" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="Q41" s="82" t="s">
+      <c r="Q41" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="R41" s="82" t="s">
+      <c r="R41" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="82" t="s">
+      <c r="S41" s="72" t="s">
         <v>12</v>
       </c>
       <c r="T41" s="39" t="s">
@@ -3861,18 +6225,18 @@
         <v>1.2644628099173554</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" ref="Q42:S44" si="2">R34/Q34</f>
+        <f t="shared" ref="Q42:S44" si="3">R34/Q34</f>
         <v>1.0980392156862746</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0057142857142858</v>
       </c>
-      <c r="T42" s="81"/>
+      <c r="T42" s="71"/>
     </row>
     <row r="43" spans="15:20" x14ac:dyDescent="0.2">
       <c r="O43" s="15">
@@ -3883,11 +6247,11 @@
         <v>1.2916666666666667</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1096774193548387</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0348837209302326</v>
       </c>
       <c r="S43" s="8"/>
@@ -3902,7 +6266,7 @@
         <v>1.2743506493506493</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1146496815286624</v>
       </c>
       <c r="R44" s="8"/>
@@ -3917,7 +6281,7 @@
         <f>Q37/P37</f>
         <v>1.302250803858521</v>
       </c>
-      <c r="Q45" s="85" t="s">
+      <c r="Q45" s="74" t="s">
         <v>88</v>
       </c>
       <c r="R45" s="8"/>
@@ -3926,22 +6290,22 @@
     </row>
     <row r="46" spans="15:20" x14ac:dyDescent="0.2">
       <c r="O46" s="15"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
     </row>
     <row r="47" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="P47" s="82" t="s">
+      <c r="P47" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="Q47" s="82" t="s">
+      <c r="Q47" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="82" t="s">
+      <c r="R47" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="S47" s="82" t="s">
+      <c r="S47" s="72" t="s">
         <v>12</v>
       </c>
       <c r="T47" s="39" t="s">
@@ -3973,7 +6337,7 @@
       </c>
     </row>
     <row r="49" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="P49" s="88" t="s">
+      <c r="P49" s="76" t="s">
         <v>89</v>
       </c>
       <c r="Q49" s="9"/>
@@ -3982,16 +6346,16 @@
       <c r="T49" s="9"/>
     </row>
     <row r="51" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="P51" s="82" t="s">
+      <c r="P51" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Q51" s="82" t="s">
+      <c r="Q51" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="82" t="s">
+      <c r="R51" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="S51" s="82" t="s">
+      <c r="S51" s="72" t="s">
         <v>18</v>
       </c>
       <c r="T51" s="39" t="s">
@@ -4024,7 +6388,7 @@
       </c>
     </row>
     <row r="53" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="P53" s="88" t="s">
+      <c r="P53" s="76" t="s">
         <v>90</v>
       </c>
       <c r="Q53" s="45"/>
@@ -4125,25 +6489,25 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
       <c r="J5" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="2">
         <v>12</v>
       </c>
@@ -4317,7 +6681,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L11" s="91" t="s">
+      <c r="L11" s="78" t="s">
         <v>100</v>
       </c>
       <c r="M11" s="34">
@@ -4332,27 +6696,27 @@
       <c r="C12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="77">
         <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O14" s="89" t="s">
+      <c r="O14" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="89" t="s">
+      <c r="P14" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="51" t="s">
+      <c r="Q14" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
       <c r="Q15" s="2">
         <v>12</v>
       </c>
@@ -4443,7 +6807,7 @@
       </c>
     </row>
     <row r="23" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O23" s="69" t="s">
+      <c r="O23" s="61" t="s">
         <v>9</v>
       </c>
       <c r="P23" s="9"/>
@@ -4452,7 +6816,7 @@
       </c>
     </row>
     <row r="24" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O24" s="69" t="s">
+      <c r="O24" s="61" t="s">
         <v>10</v>
       </c>
       <c r="P24" s="9">
@@ -4464,7 +6828,7 @@
       </c>
     </row>
     <row r="25" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O25" s="69" t="s">
+      <c r="O25" s="61" t="s">
         <v>11</v>
       </c>
       <c r="P25" s="9">
@@ -4473,15 +6837,15 @@
       </c>
     </row>
     <row r="26" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O26" s="69" t="s">
+      <c r="O26" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P26" s="96">
+      <c r="P26" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O27" s="69"/>
+      <c r="O27" s="61"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="15:20" x14ac:dyDescent="0.2">
@@ -4493,7 +6857,7 @@
       </c>
     </row>
     <row r="29" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O29" s="69" t="s">
+      <c r="O29" s="61" t="s">
         <v>16</v>
       </c>
       <c r="P29" s="9">
@@ -4505,7 +6869,7 @@
       </c>
     </row>
     <row r="30" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O30" s="69" t="s">
+      <c r="O30" s="61" t="s">
         <v>17</v>
       </c>
       <c r="P30" s="9">
@@ -4514,7 +6878,7 @@
       </c>
     </row>
     <row r="31" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O31" s="69" t="s">
+      <c r="O31" s="61" t="s">
         <v>18</v>
       </c>
       <c r="P31" s="9">
@@ -4523,21 +6887,21 @@
       </c>
     </row>
     <row r="32" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O32" s="69"/>
+      <c r="O32" s="61"/>
       <c r="P32" s="9"/>
       <c r="S32" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="15:33" x14ac:dyDescent="0.2">
-      <c r="O33" s="69"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="9"/>
       <c r="R33" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" spans="15:33" x14ac:dyDescent="0.2">
-      <c r="O34" s="69"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="7" t="s">
         <v>116</v>
@@ -4643,10 +7007,10 @@
       <c r="S40" s="20"/>
     </row>
     <row r="41" spans="15:33" x14ac:dyDescent="0.2">
-      <c r="S41" s="93" t="s">
+      <c r="S41" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="T41" s="94">
+      <c r="T41" s="81">
         <f>AVERAGE(S37:S39)</f>
         <v>0.52608810784785753</v>
       </c>
@@ -4667,7 +7031,7 @@
       <c r="S44" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="T44" s="95">
+      <c r="T44" s="82">
         <f>T41*R40</f>
         <v>1149.5025156475688</v>
       </c>
@@ -4878,7 +7242,7 @@
       <c r="AF54" t="s">
         <v>109</v>
       </c>
-      <c r="AG54" s="97">
+      <c r="AG54" s="84">
         <f>AG52*Y55</f>
         <v>1108.90699872301</v>
       </c>
@@ -4896,12 +7260,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q14:T14"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:T14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4958,32 +7322,32 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:11" s="100" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B3" s="76" t="s">
+    <row r="3" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="39" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5126,16 +7490,16 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="39" t="s">
         <v>147</v>
       </c>
       <c r="I9" t="s">
         <v>155</v>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="86">
         <f>SUM(J4:J7)*1000</f>
         <v>774782.7481160817</v>
       </c>
@@ -5176,13 +7540,13 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="39" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5191,7 +7555,7 @@
         <f>VALUE(LEFT(C16,2))</f>
         <v>12</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="75" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="9">
@@ -5288,18 +7652,18 @@
       <c r="AB22" s="19"/>
     </row>
     <row r="23" spans="2:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="102" t="s">
+      <c r="M23" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="102" t="s">
+      <c r="N23" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="54" t="s">
+      <c r="O23" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
       <c r="X23" s="19"/>
       <c r="Y23" s="7" t="s">
         <v>180</v>
@@ -5309,19 +7673,19 @@
       <c r="AB23" s="19"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="54" t="s">
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="T24" s="103"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="T24" s="87"/>
       <c r="U24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="V24" s="103"/>
+      <c r="V24" s="87"/>
       <c r="W24" s="7" t="s">
         <v>178</v>
       </c>
@@ -5334,8 +7698,8 @@
       <c r="AB24" s="19"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
       <c r="O25" s="39">
         <v>12</v>
       </c>
@@ -5348,31 +7712,31 @@
       <c r="R25" s="39">
         <v>48</v>
       </c>
-      <c r="T25" s="104" t="s">
+      <c r="T25" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="104" t="s">
+      <c r="U25" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="V25" s="104" t="s">
+      <c r="V25" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="W25" s="104" t="s">
+      <c r="W25" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="X25" s="104" t="s">
+      <c r="X25" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="Y25" s="104" t="s">
+      <c r="Y25" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Z25" s="104" t="s">
+      <c r="Z25" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="AA25" s="104" t="s">
+      <c r="AA25" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="AB25" s="104" t="s">
+      <c r="AB25" s="88" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5451,7 +7815,7 @@
         <v>2002</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" ref="U26:U27" si="4">U28+12</f>
+        <f t="shared" ref="U27" si="4">U28+12</f>
         <v>36</v>
       </c>
       <c r="V27" s="33">
@@ -5462,7 +7826,7 @@
         <v>18000</v>
       </c>
       <c r="X27" s="28">
-        <f t="shared" ref="X27:X29" si="6">SUM(_xlfn.XLOOKUP(T27,$M$26:$M$29,$O$26:$R$29))</f>
+        <f t="shared" ref="X27:X28" si="6">SUM(_xlfn.XLOOKUP(T27,$M$26:$M$29,$O$26:$R$29))</f>
         <v>30350</v>
       </c>
       <c r="Y27" s="9">
@@ -5470,7 +7834,7 @@
         <v>1.1489361702127661</v>
       </c>
       <c r="Z27" s="29">
-        <f t="shared" ref="Z27:Z29" si="8">X27*Y27</f>
+        <f t="shared" ref="Z27:Z28" si="8">X27*Y27</f>
         <v>34870.212765957447</v>
       </c>
       <c r="AA27" s="29">
@@ -5588,34 +7952,34 @@
       </c>
     </row>
     <row r="33" spans="13:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
     </row>
     <row r="34" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="N34" s="102" t="s">
+      <c r="N34" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="54" t="s">
+      <c r="O34" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
     </row>
     <row r="35" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="N35" s="102"/>
-      <c r="O35" s="82" t="s">
+      <c r="N35" s="120"/>
+      <c r="O35" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="82" t="s">
+      <c r="P35" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="82" t="s">
+      <c r="Q35" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="R35" s="82" t="s">
+      <c r="R35" s="72" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5651,7 +8015,7 @@
         <f>Q27/P27</f>
         <v>1.4466019417475728</v>
       </c>
-      <c r="Q37" s="105" t="s">
+      <c r="Q37" s="89" t="s">
         <v>176</v>
       </c>
       <c r="R37" s="32"/>
@@ -5721,7 +8085,7 @@
         <f>R36</f>
         <v>1</v>
       </c>
-      <c r="W44" s="106">
+      <c r="W44" s="90">
         <f>8000000+9800000*(1-1/1.25)</f>
         <v>9960000</v>
       </c>
@@ -5754,7 +8118,7 @@
         <v>24</v>
       </c>
       <c r="N48" s="5" t="str">
-        <f t="shared" ref="N48:N50" si="14">LEFT(N42,2)&amp;"-ult"</f>
+        <f t="shared" ref="N48:N49" si="14">LEFT(N42,2)&amp;"-ult"</f>
         <v>24-ult</v>
       </c>
       <c r="O48" s="9">
@@ -5877,7 +8241,7 @@
       <c r="D4" s="17">
         <v>0.65</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="91">
         <v>2.2999999999999998</v>
       </c>
       <c r="F4" s="33">
@@ -5902,7 +8266,7 @@
       <c r="D5" s="17">
         <v>0.75</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="91">
         <v>4</v>
       </c>
       <c r="F5" s="33">
@@ -6255,7 +8619,7 @@
       <c r="N20" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="O20" s="108">
+      <c r="O20" s="92">
         <f>SUM(M13:M17)/SUM(O13:O17)</f>
         <v>0.9073412152873247</v>
       </c>
@@ -6315,19 +8679,19 @@
       <c r="Y32" s="33">
         <v>3200</v>
       </c>
-      <c r="Z32" s="81">
+      <c r="Z32" s="71">
         <v>1</v>
       </c>
       <c r="AA32" s="28">
         <f>Y32*Z32</f>
         <v>3200</v>
       </c>
-      <c r="AB32" s="112">
+      <c r="AB32" s="96">
         <f>1/Z32</f>
         <v>1</v>
       </c>
       <c r="AC32" s="29">
-        <f>X32*$AA$40*(1-AB32)</f>
+        <f t="shared" ref="AC32:AC37" si="2">X32*$AA$40*(1-AB32)</f>
         <v>0</v>
       </c>
     </row>
@@ -6344,19 +8708,19 @@
       <c r="Y33" s="33">
         <v>3400</v>
       </c>
-      <c r="Z33" s="81">
+      <c r="Z33" s="71">
         <v>1.0529999999999999</v>
       </c>
       <c r="AA33" s="28">
-        <f t="shared" ref="AA33:AA37" si="2">Y33*Z33</f>
+        <f t="shared" ref="AA33:AA37" si="3">Y33*Z33</f>
         <v>3580.2</v>
       </c>
-      <c r="AB33" s="112">
-        <f t="shared" ref="AB33:AB37" si="3">1/Z33</f>
+      <c r="AB33" s="96">
+        <f t="shared" ref="AB33:AB37" si="4">1/Z33</f>
         <v>0.94966761633428309</v>
       </c>
       <c r="AC33" s="29">
-        <f>X33*$AA$40*(1-AB33)</f>
+        <f t="shared" si="2"/>
         <v>181.88516426949184</v>
       </c>
     </row>
@@ -6373,19 +8737,19 @@
       <c r="Y34" s="33">
         <v>3500</v>
       </c>
-      <c r="Z34" s="81">
+      <c r="Z34" s="71">
         <v>1.1759999999999999</v>
       </c>
       <c r="AA34" s="28">
+        <f t="shared" si="3"/>
+        <v>4116</v>
+      </c>
+      <c r="AB34" s="96">
+        <f t="shared" si="4"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="AC34" s="29">
         <f t="shared" si="2"/>
-        <v>4116</v>
-      </c>
-      <c r="AB34" s="112">
-        <f t="shared" si="3"/>
-        <v>0.85034013605442182</v>
-      </c>
-      <c r="AC34" s="29">
-        <f>X34*$AA$40*(1-AB34)</f>
         <v>624.02649735894295</v>
       </c>
     </row>
@@ -6402,19 +8766,19 @@
       <c r="Y35" s="33">
         <v>2800</v>
       </c>
-      <c r="Z35" s="81">
+      <c r="Z35" s="71">
         <v>1.429</v>
       </c>
       <c r="AA35" s="28">
+        <f t="shared" si="3"/>
+        <v>4001.2000000000003</v>
+      </c>
+      <c r="AB35" s="96">
+        <f t="shared" si="4"/>
+        <v>0.69979006298110569</v>
+      </c>
+      <c r="AC35" s="29">
         <f t="shared" si="2"/>
-        <v>4001.2000000000003</v>
-      </c>
-      <c r="AB35" s="112">
-        <f t="shared" si="3"/>
-        <v>0.69979006298110569</v>
-      </c>
-      <c r="AC35" s="29">
-        <f>X35*$AA$40*(1-AB35)</f>
         <v>1301.8354323768979</v>
       </c>
     </row>
@@ -6431,19 +8795,19 @@
       <c r="Y36" s="33">
         <v>2100</v>
       </c>
-      <c r="Z36" s="81">
+      <c r="Z36" s="71">
         <v>2</v>
       </c>
       <c r="AA36" s="28">
+        <f t="shared" si="3"/>
+        <v>4200</v>
+      </c>
+      <c r="AB36" s="96">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC36" s="25">
         <f t="shared" si="2"/>
-        <v>4200</v>
-      </c>
-      <c r="AB36" s="112">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC36" s="25">
-        <f>X36*$AA$40*(1-AB36)</f>
         <v>2168.2084299144371</v>
       </c>
     </row>
@@ -6451,28 +8815,28 @@
       <c r="V37" s="26">
         <v>2003</v>
       </c>
-      <c r="W37" s="109">
+      <c r="W37" s="93">
         <v>7000</v>
       </c>
-      <c r="X37" s="109">
+      <c r="X37" s="93">
         <v>7000</v>
       </c>
-      <c r="Y37" s="109">
+      <c r="Y37" s="93">
         <v>1600</v>
       </c>
-      <c r="Z37" s="110">
+      <c r="Z37" s="94">
         <v>4</v>
       </c>
       <c r="AA37" s="30">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+      <c r="AB37" s="97">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC37" s="31">
         <f t="shared" si="2"/>
-        <v>6400</v>
-      </c>
-      <c r="AB37" s="113">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="AC37" s="31">
-        <f>X37*$AA$40*(1-AB37)</f>
         <v>2918.7421171925112</v>
       </c>
     </row>
@@ -6485,11 +8849,11 @@
         <v>34500</v>
       </c>
       <c r="X38" s="28">
-        <f t="shared" ref="X38:Y38" si="4">SUM(X32:X37)</f>
+        <f t="shared" ref="X38:Y38" si="5">SUM(X32:X37)</f>
         <v>42800</v>
       </c>
       <c r="Y38" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16600</v>
       </c>
     </row>
@@ -6502,7 +8866,7 @@
       <c r="Z40" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="AA40" s="111">
+      <c r="AA40" s="95">
         <f>SUM(Y32:Y37)/SUMPRODUCT(X32:X37,AB32:AB37)</f>
         <v>0.55595087946524024</v>
       </c>
@@ -6542,34 +8906,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="47"/>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="L2" s="89" t="s">
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="L2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="89"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6580,7 +8944,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="89"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6590,7 +8954,7 @@
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="89"/>
+      <c r="L3" s="118"/>
       <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6630,15 +8994,15 @@
       <c r="L4" s="15">
         <v>2009</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="68">
         <f>H4/C4</f>
         <v>5.5952380952380949</v>
       </c>
-      <c r="N4" s="78">
+      <c r="N4" s="68">
         <f t="shared" ref="N4:O4" si="0">I4/D4</f>
         <v>6.7307692307692308</v>
       </c>
-      <c r="O4" s="78">
+      <c r="O4" s="68">
         <f t="shared" si="0"/>
         <v>7.421875</v>
       </c>
@@ -6668,15 +9032,15 @@
       <c r="L5" s="15">
         <v>2010</v>
       </c>
-      <c r="M5" s="78">
+      <c r="M5" s="68">
         <f t="shared" ref="M5:M6" si="1">H5/C5</f>
         <v>5.4751131221719458</v>
       </c>
-      <c r="N5" s="78">
+      <c r="N5" s="68">
         <f t="shared" ref="N5" si="2">I5/D5</f>
         <v>6.7794117647058822</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="15">
@@ -6699,12 +9063,12 @@
       <c r="L6" s="15">
         <v>2011</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="68">
         <f t="shared" si="1"/>
         <v>5.7311320754716979</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
@@ -6712,33 +9076,33 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="L9" s="89" t="s">
+      <c r="D9" s="119"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="N9" s="51"/>
+      <c r="N9" s="119"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="89"/>
-      <c r="C10" s="92" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="79" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -6749,11 +9113,11 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="92" t="s">
+      <c r="L10" s="118"/>
+      <c r="M10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="92" t="s">
+      <c r="N10" s="79" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -6772,14 +9136,14 @@
         <f>E4/D4</f>
         <v>1.0256410256410255</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="71">
         <v>1</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
       <c r="L11" s="15">
         <v>2009</v>
       </c>
@@ -6791,7 +9155,7 @@
         <f>O4/N4</f>
         <v>1.1026785714285714</v>
       </c>
-      <c r="O11" s="81">
+      <c r="O11" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6814,7 +9178,7 @@
         <v>2010</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" ref="M12:N12" si="4">N5/M5</f>
+        <f t="shared" ref="M12" si="4">N5/M5</f>
         <v>1.2382231404958677</v>
       </c>
       <c r="N12" s="8"/>
@@ -6823,8 +9187,8 @@
       <c r="B13" s="15">
         <v>2011</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -6834,8 +9198,8 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -7016,14 +9380,14 @@
       <c r="B28" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="115">
+      <c r="C28" s="99">
         <f>C6*C23</f>
         <v>328.78219216680748</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="M28" s="116">
+      <c r="M28" s="100">
         <f>M6*M23</f>
         <v>7.7136019832535707</v>
       </c>
@@ -7037,23 +9401,23 @@
       <c r="G31" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="114">
+      <c r="H31" s="98">
         <f>C28*M28*1000</f>
         <v>2536094.9695563428</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7344,7 +9708,7 @@
       <c r="K12" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="L12" s="117">
+      <c r="L12" s="101">
         <f>G7*K9*M9</f>
         <v>2253419.6007916532</v>
       </c>
@@ -7361,7 +9725,7 @@
       <c r="K14" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="L14" s="118">
+      <c r="L14" s="102">
         <f>C7*E7</f>
         <v>180000</v>
       </c>
@@ -7410,59 +9774,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="119" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="I2" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="P2" s="51" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="P2" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="I3" s="52" t="s">
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="I3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="P3" s="52" t="s">
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="P3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="2">
         <v>12</v>
       </c>
@@ -7475,7 +9839,7 @@
       <c r="F4" s="2">
         <v>48</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="2">
         <v>12</v>
       </c>
@@ -7488,7 +9852,7 @@
       <c r="M4" s="2">
         <v>48</v>
       </c>
-      <c r="P4" s="52"/>
+      <c r="P4" s="121"/>
       <c r="Q4" s="2">
         <v>12</v>
       </c>
@@ -7521,35 +9885,35 @@
       <c r="I5" s="15">
         <v>2004</v>
       </c>
-      <c r="J5" s="119">
+      <c r="J5" s="103">
         <f>C5*1000/C14</f>
         <v>800</v>
       </c>
-      <c r="K5" s="119">
+      <c r="K5" s="103">
         <f t="shared" ref="K5:M6" si="0">D5*1000/D14</f>
         <v>1000</v>
       </c>
-      <c r="L5" s="119">
+      <c r="L5" s="103">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="M5" s="119">
+      <c r="M5" s="103">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="P5" s="15">
         <v>2004</v>
       </c>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119">
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103">
         <f>K5*(1+$C$20)^($P$8-$P5)</f>
         <v>1157.6250000000002</v>
       </c>
-      <c r="S5" s="119">
+      <c r="S5" s="103">
         <f>L5*(1+$C$20)^($P$8-$P5)</f>
         <v>1389.15</v>
       </c>
-      <c r="T5" s="119">
+      <c r="T5" s="103">
         <f>M5*(1+$C$20)^($P$8-$P5)</f>
         <v>1736.4375000000002</v>
       </c>
@@ -7571,32 +9935,32 @@
       <c r="I6" s="15">
         <v>2005</v>
       </c>
-      <c r="J6" s="119">
+      <c r="J6" s="103">
         <f t="shared" ref="J6:K7" si="1">C6*1000/C15</f>
         <v>840</v>
       </c>
-      <c r="K6" s="119">
+      <c r="K6" s="103">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="L6" s="119">
+      <c r="L6" s="103">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="M6" s="119"/>
+      <c r="M6" s="103"/>
       <c r="P6" s="15">
         <v>2005</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119">
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103">
         <f>K6*(1+$C$20)^($P$8-$P6)</f>
         <v>1157.625</v>
       </c>
-      <c r="S6" s="119">
+      <c r="S6" s="103">
         <f>L6*(1+$C$20)^($P$8-$P6)</f>
         <v>1389.15</v>
       </c>
-      <c r="T6" s="119"/>
+      <c r="T6" s="103"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="15">
@@ -7613,26 +9977,26 @@
       <c r="I7" s="15">
         <v>2006</v>
       </c>
-      <c r="J7" s="119">
+      <c r="J7" s="103">
         <f t="shared" si="1"/>
         <v>882.66666666666663</v>
       </c>
-      <c r="K7" s="119">
+      <c r="K7" s="103">
         <f t="shared" si="1"/>
         <v>1102.2222222222222</v>
       </c>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="P7" s="15">
         <v>2006</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119">
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103">
         <f>K7*(1+$C$20)^($P$8-$P7)</f>
         <v>1157.3333333333333</v>
       </c>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
@@ -7647,20 +10011,20 @@
       <c r="I8" s="15">
         <v>2007</v>
       </c>
-      <c r="J8" s="119">
+      <c r="J8" s="103">
         <f>C8*1000/C17</f>
         <v>925.55555555555554</v>
       </c>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
       <c r="P8" s="15">
         <v>2007</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
@@ -7677,22 +10041,22 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="I11" s="51" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="I11" s="119" t="s">
         <v>267</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
       <c r="O11" s="47"/>
       <c r="P11" s="3" t="s">
         <v>70</v>
@@ -7715,28 +10079,28 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52" t="s">
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="121" t="s">
         <v>264</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="52" t="s">
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="121" t="s">
         <v>264</v>
       </c>
       <c r="O12" s="48"/>
@@ -7749,7 +10113,7 @@
         <v>1157.5277777777776</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" ref="R12:S12" si="3">AVERAGE(S5:S8)</f>
+        <f t="shared" ref="S12" si="3">AVERAGE(S5:S8)</f>
         <v>1389.15</v>
       </c>
       <c r="T12" s="10">
@@ -7758,7 +10122,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="2">
         <v>12</v>
       </c>
@@ -7771,8 +10135,8 @@
       <c r="F13" s="2">
         <v>48</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="G13" s="121"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="2">
         <v>12</v>
       </c>
@@ -7785,7 +10149,7 @@
       <c r="M13" s="2">
         <v>48</v>
       </c>
-      <c r="N13" s="52"/>
+      <c r="N13" s="121"/>
       <c r="O13" s="48"/>
       <c r="P13" s="3"/>
     </row>
@@ -7873,7 +10237,7 @@
       <c r="P15" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q15" s="121">
+      <c r="Q15" s="105">
         <f>N17-J17</f>
         <v>900</v>
       </c>
@@ -7979,17 +10343,17 @@
       <c r="B20" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="77">
         <v>0.05</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="119" t="s">
         <v>269</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
       <c r="O20" s="47"/>
       <c r="P20" s="3" t="s">
         <v>70</v>
@@ -8005,16 +10369,16 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52" t="s">
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="121" t="s">
         <v>264</v>
       </c>
       <c r="O21" s="48"/>
@@ -8036,7 +10400,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I22" s="52"/>
+      <c r="I22" s="121"/>
       <c r="J22" s="2">
         <v>12</v>
       </c>
@@ -8049,26 +10413,26 @@
       <c r="M22" s="2">
         <v>48</v>
       </c>
-      <c r="N22" s="52"/>
+      <c r="N22" s="121"/>
       <c r="O22" s="48"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I23" s="15">
         <v>2004</v>
       </c>
-      <c r="J23" s="120">
+      <c r="J23" s="104">
         <f>J14/$N23</f>
         <v>0.5</v>
       </c>
-      <c r="K23" s="120">
+      <c r="K23" s="104">
         <f t="shared" ref="K23:M23" si="5">K14/$N23</f>
         <v>0.8</v>
       </c>
-      <c r="L23" s="120">
+      <c r="L23" s="104">
         <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
-      <c r="M23" s="120">
+      <c r="M23" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -8079,7 +10443,7 @@
       <c r="S23" t="s">
         <v>277</v>
       </c>
-      <c r="T23" s="122">
+      <c r="T23" s="106">
         <f>SUM(R21:T21)</f>
         <v>1156414.875</v>
       </c>
@@ -8088,15 +10452,15 @@
       <c r="I24" s="15">
         <v>2005</v>
       </c>
-      <c r="J24" s="120">
+      <c r="J24" s="104">
         <f t="shared" ref="J24:L26" si="6">J15/$N24</f>
         <v>0.5</v>
       </c>
-      <c r="K24" s="120">
+      <c r="K24" s="104">
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-      <c r="L24" s="120">
+      <c r="L24" s="104">
         <f t="shared" si="6"/>
         <v>0.95</v>
       </c>
@@ -8110,11 +10474,11 @@
       <c r="I25" s="15">
         <v>2006</v>
       </c>
-      <c r="J25" s="120">
+      <c r="J25" s="104">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K25" s="120">
+      <c r="K25" s="104">
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
@@ -8129,7 +10493,7 @@
       <c r="I26" s="15">
         <v>2007</v>
       </c>
-      <c r="J26" s="120">
+      <c r="J26" s="104">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
@@ -8185,6 +10549,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:M21"/>
@@ -8199,13 +10570,6 @@
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/temp-work-2.xlsx
+++ b/files/temp-work-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coltongearhart/Desktop/exam5/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AABBF-483B-B440-875D-2B21C872C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978B12F6-3FD7-EA42-AF11-04D85F063D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="13" xr2:uid="{BB8505BC-BCB7-B340-A120-C046C43AD7BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" firstSheet="1" activeTab="17" xr2:uid="{BB8505BC-BCB7-B340-A120-C046C43AD7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1.1" sheetId="19" r:id="rId1"/>
@@ -27,6 +27,10 @@
     <sheet name="7.1.1" sheetId="31" r:id="rId12"/>
     <sheet name="7.1.2" sheetId="32" r:id="rId13"/>
     <sheet name="7.2.1" sheetId="33" r:id="rId14"/>
+    <sheet name="8.1.1" sheetId="34" r:id="rId15"/>
+    <sheet name="8.1.2" sheetId="35" r:id="rId16"/>
+    <sheet name="8.2.1" sheetId="36" r:id="rId17"/>
+    <sheet name="8.3.1" sheetId="37" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'6.2.1'!$B$2:$E$2</definedName>
@@ -74,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="487">
   <si>
     <t>Total</t>
   </si>
@@ -1263,6 +1267,279 @@
   </si>
   <si>
     <t>="AY 2021 Exp Paid Claims between "&amp;$S$23&amp;" - "&amp;S24&amp;" months = "</t>
+  </si>
+  <si>
+    <t>Cumulative Paid Claims Gross of S&amp;S ($000s)</t>
+  </si>
+  <si>
+    <t>Cumulative Recieved S&amp;S ($000s)</t>
+  </si>
+  <si>
+    <t>Age (Months)</t>
+  </si>
+  <si>
+    <t>CDF to Ultimate</t>
+  </si>
+  <si>
+    <t>S&amp;S Ratios</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Cumulative Paid Claims Dev Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimate Paid Claims CDF = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY 2011 ultimate paid claims = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY 2011 developed S&amp;S ratio = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY 2011 ultimate S&amp;S = </t>
+  </si>
+  <si>
+    <t>=E4/D4</t>
+  </si>
+  <si>
+    <t>=AVERAGE(I4:I5)</t>
+  </si>
+  <si>
+    <t>=PRODUCT(H7:I7)</t>
+  </si>
+  <si>
+    <t>=E11/E4</t>
+  </si>
+  <si>
+    <t>=H16*C19</t>
+  </si>
+  <si>
+    <t>=C6*H9</t>
+  </si>
+  <si>
+    <t>=H20*H18*1000</t>
+  </si>
+  <si>
+    <t>Policy Year</t>
+  </si>
+  <si>
+    <t>Reported Claims Gross of all Reinsurance (000s)</t>
+  </si>
+  <si>
+    <t>Reported Claims Net of Excess of Loss Treaty (000s)</t>
+  </si>
+  <si>
+    <t>Gross Reported Development Factors</t>
+  </si>
+  <si>
+    <t>Net Reported Cumulative Development Factors</t>
+  </si>
+  <si>
+    <t>Stop Loss Limit (000s)</t>
+  </si>
+  <si>
+    <t>Est ult reported claims net  XoL treaty (000s)</t>
+  </si>
+  <si>
+    <t>Est ult reported claims net of all reinsurance (000s)</t>
+  </si>
+  <si>
+    <t>=IF(H4&gt;G4,G4,H4)</t>
+  </si>
+  <si>
+    <t>=SUM(I4:I7)*1000</t>
+  </si>
+  <si>
+    <t>Ultimate Claims</t>
+  </si>
+  <si>
+    <t>Paid ALAE</t>
+  </si>
+  <si>
+    <t>Ratio of Cumulative Paid ALAE to Cumulative Paid Claims</t>
+  </si>
+  <si>
+    <t>Loss Development Factors</t>
+  </si>
+  <si>
+    <t>Age-to-Age</t>
+  </si>
+  <si>
+    <t>Ult</t>
+  </si>
+  <si>
+    <t>Est ult paid ALAE</t>
+  </si>
+  <si>
+    <t>Est unpaid ALAE</t>
+  </si>
+  <si>
+    <t>=($B$7-B4+1)*12</t>
+  </si>
+  <si>
+    <t>=F13-E13</t>
+  </si>
+  <si>
+    <t>Ultimate ratio</t>
+  </si>
+  <si>
+    <t>Latest ratio</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(E4,$K$9:$M$9,$K$19:$M$19,0)</t>
+  </si>
+  <si>
+    <t>=MAX(XLOOKUP(B4,$B$13:$B$16,$C$13:$F$16))</t>
+  </si>
+  <si>
+    <t>=SUM(F4:G4)</t>
+  </si>
+  <si>
+    <t>=C7*H7</t>
+  </si>
+  <si>
+    <t>=I7-D7</t>
+  </si>
+  <si>
+    <t>=SUM(J4:J7)</t>
+  </si>
+  <si>
+    <t>=VALUE(LEFT(M12,2))</t>
+  </si>
+  <si>
+    <t>=AVERAGE(M13:M15)</t>
+  </si>
+  <si>
+    <t>=SUM(M17:$M$17)</t>
+  </si>
+  <si>
+    <t>(Age of Developent in Months)</t>
+  </si>
+  <si>
+    <t>Calendar Year</t>
+  </si>
+  <si>
+    <t>Paid ULAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case reserves as of 12/31/2003 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required IBNR reserve as of 12/31/2003 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1 (% of ULAE at open) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2 (% of ULAE maintaining) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3 (% of ULAE at close) = </t>
+  </si>
+  <si>
+    <t>Paid Claims</t>
+  </si>
+  <si>
+    <t>W_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W_C* = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unpaid ULAE = </t>
+  </si>
+  <si>
+    <t>=SUM(J9,K8,L7,M6,N5)</t>
+  </si>
+  <si>
+    <t>=C13/D13</t>
+  </si>
+  <si>
+    <t>=AVERAGE(E13:E17)</t>
+  </si>
+  <si>
+    <t>=E20*(C24+C27*C23)</t>
+  </si>
+  <si>
+    <t>=D8-C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003 CY paid loss = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total loss reserves as of 12/31/2003 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total loss reserves as of 12/31/2002 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBNR reserve as of 12/31/2003 = </t>
+  </si>
+  <si>
+    <t>2003 CY paid ULAE =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unpaid ULAE at 12/31/2003 = </t>
+  </si>
+  <si>
+    <t>W_K =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in reserves = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incurred claims = </t>
+  </si>
+  <si>
+    <t>NOTE: "Total loss reserves" includes IBNR, so in order to get case outstanding you would need to subtract IBNR</t>
+  </si>
+  <si>
+    <t>=Q29-Q30</t>
+  </si>
+  <si>
+    <t>=Q28+U28</t>
+  </si>
+  <si>
+    <t>=Q32/(0.5*(Q28+U30))</t>
+  </si>
+  <si>
+    <t>=U32*(Q31+0.5*(Q29-Q31))</t>
+  </si>
+  <si>
+    <t>Ultimate Reported Claims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimate value of claims for 2007 through 2010 = </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W* = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total unpaid ULAE = </t>
+  </si>
+  <si>
+    <t>Expected claims approach</t>
+  </si>
+  <si>
+    <t>=$AA$49*AA43+$AA$50*AB43</t>
+  </si>
+  <si>
+    <t>=Z43/AC43</t>
+  </si>
+  <si>
+    <t>=AVERAGE(AD43:AD46)</t>
+  </si>
+  <si>
+    <t>=AD48*AA53-SUM(Z43:Z46)</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1424,6 +1701,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1431,7 +1717,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1672,6 +1958,7 @@
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1688,6 +1975,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5118,7 +5437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A016A7-C8AA-ED46-A2E2-725744060BCF}">
   <dimension ref="B1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M14" workbookViewId="0">
+    <sheetView topLeftCell="M14" workbookViewId="0">
       <selection activeCell="AC47" sqref="AC47"/>
     </sheetView>
   </sheetViews>
@@ -5197,7 +5516,7 @@
       <c r="D4" s="16">
         <v>345000</v>
       </c>
-      <c r="E4" s="140">
+      <c r="E4" s="141">
         <f>($C$16-B4+1)*12</f>
         <v>36</v>
       </c>
@@ -5236,7 +5555,7 @@
       <c r="D5" s="16">
         <v>300000</v>
       </c>
-      <c r="E5" s="140">
+      <c r="E5" s="141">
         <f t="shared" ref="E5:E6" si="0">($C$16-B5+1)*12</f>
         <v>24</v>
       </c>
@@ -5275,7 +5594,7 @@
       <c r="D6" s="16">
         <v>235000</v>
       </c>
-      <c r="E6" s="140">
+      <c r="E6" s="141">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5333,7 +5652,7 @@
       <c r="J10" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="K10" s="142">
+      <c r="K10" s="143">
         <f>SUM(K4:K6)</f>
         <v>89875.406684412883</v>
       </c>
@@ -5470,7 +5789,7 @@
       <c r="O23" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="Q23" s="143" t="s">
+      <c r="Q23" s="144" t="s">
         <v>390</v>
       </c>
       <c r="R23" s="12" t="s">
@@ -5492,7 +5811,7 @@
       <c r="O24" s="15">
         <v>2.5</v>
       </c>
-      <c r="Q24" s="143" t="s">
+      <c r="Q24" s="144" t="s">
         <v>389</v>
       </c>
       <c r="R24" s="12" t="s">
@@ -5517,7 +5836,7 @@
       <c r="O25" s="15">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q25" s="143" t="s">
+      <c r="Q25" s="144" t="s">
         <v>391</v>
       </c>
       <c r="R25" s="12" t="s">
@@ -5547,7 +5866,7 @@
       <c r="O27" s="15">
         <v>1.4</v>
       </c>
-      <c r="R27" s="145" t="s">
+      <c r="R27" s="146" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5558,7 +5877,7 @@
       <c r="O28" s="15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R28" s="144" t="str">
+      <c r="R28" s="145" t="str">
         <f>"AY 2021 Exp Paid Claims between "&amp;$S$23&amp;" - "&amp;S24&amp;" months = "</f>
         <v xml:space="preserve">AY 2021 Exp Paid Claims between 24 - 36 months = </v>
       </c>
@@ -5571,7 +5890,7 @@
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="R29" s="144" t="str">
+      <c r="R29" s="145" t="str">
         <f>"AY 2021 Exp Paid Claims between "&amp;$S$23&amp;" - "&amp;S25&amp;" months = "</f>
         <v xml:space="preserve">AY 2021 Exp Paid Claims between 24 - 48 months = </v>
       </c>
@@ -5605,11 +5924,1769 @@
       <c r="N34" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="O34" s="141">
+      <c r="O34" s="142">
         <v>45383</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B8790F-FE28-6F49-858B-18E0F3C85579}">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="5" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="G2" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="119" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2" s="119"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="118"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="118"/>
+      <c r="H3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C4" s="33">
+        <v>15117</v>
+      </c>
+      <c r="D4" s="33">
+        <v>16953</v>
+      </c>
+      <c r="E4" s="33">
+        <v>16953</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2009</v>
+      </c>
+      <c r="H4" s="8">
+        <f>D4/C4</f>
+        <v>1.121452669180393</v>
+      </c>
+      <c r="I4" s="8">
+        <f>E4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="33">
+        <v>15092</v>
+      </c>
+      <c r="D5" s="33">
+        <v>16862</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="G5" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H5" s="8">
+        <f>D5/C5</f>
+        <v>1.1172806785051683</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="135"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C6" s="33">
+        <v>14727</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" s="9">
+        <f>AVERAGE(H4:H5)</f>
+        <v>1.1193666738427805</v>
+      </c>
+      <c r="I7" s="9">
+        <f>AVERAGE(I4:I5)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="G9" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="H9" s="147">
+        <f>PRODUCT(H7:I7)</f>
+        <v>1.1193666738427805</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="118"/>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2104</v>
+      </c>
+      <c r="D11" s="33">
+        <v>4493</v>
+      </c>
+      <c r="E11" s="33">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1995</v>
+      </c>
+      <c r="D12" s="33">
+        <v>4657</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="G12" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="119" t="s">
+        <v>400</v>
+      </c>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C13" s="33">
+        <v>2025</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G14" s="15">
+        <v>2009</v>
+      </c>
+      <c r="H14" s="8">
+        <f>C11/C4</f>
+        <v>0.13918105444201892</v>
+      </c>
+      <c r="I14" s="8">
+        <f>D11/D4</f>
+        <v>0.26502683890756801</v>
+      </c>
+      <c r="J14" s="8">
+        <f>E11/E4</f>
+        <v>0.27163333923199434</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H15" s="8">
+        <f>C12/C5</f>
+        <v>0.13218923933209648</v>
+      </c>
+      <c r="I15" s="8">
+        <f>D12/D5</f>
+        <v>0.27618313367334835</v>
+      </c>
+      <c r="J15" s="135"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G16" s="15">
+        <v>2011</v>
+      </c>
+      <c r="H16" s="8">
+        <f>C13/C6</f>
+        <v>0.1375025463434508</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="15">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="15">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H18" s="147">
+        <f>H16*C19</f>
+        <v>0.28146771236504381</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>411</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="15">
+        <v>12</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20" s="100">
+        <f>C6*H9</f>
+        <v>16484.913005682629</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G21" s="12"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G22" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="H22" s="50">
+        <f>H20*H18*1000</f>
+        <v>4639970.7522462476</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDCE2E6-9B7F-BF4F-8D8F-CFFBE17DEE5A}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="148" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="148" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="148" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="148" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="148" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" s="148" t="s">
+        <v>420</v>
+      </c>
+      <c r="I3" s="148" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1989</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1242</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.34</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.325</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="18">
+        <f>D4*F4</f>
+        <v>1645.6499999999999</v>
+      </c>
+      <c r="I4" s="18">
+        <f>IF(H4&gt;G4,G4,H4)</f>
+        <v>1645.6499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2101</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1985</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1.86</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1.54</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5:H7" si="0">D5*F5</f>
+        <v>3056.9</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" ref="I5:I7" si="1">IF(H5&gt;G5,G5,H5)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2358</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2358</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1.85</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>4362.3</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1897</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1208</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>2724.04</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="1"/>
+        <v>2724.04</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="140">
+        <f>SUM(I4:I7)*1000</f>
+        <v>9869689.9999999981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B07798-6536-244A-A585-72AC545238D0}">
+  <dimension ref="B1:N19"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F1" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E2" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="15">
+        <v>2003</v>
+      </c>
+      <c r="C4" s="33">
+        <v>65000</v>
+      </c>
+      <c r="D4" s="33">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="5">
+        <f>($B$7-B4+1)*12</f>
+        <v>48</v>
+      </c>
+      <c r="F4" s="153">
+        <f>_xlfn.XLOOKUP(E4,$K$9:$M$9,$K$19:$M$19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="153">
+        <f>MAX(_xlfn.XLOOKUP(B4,$B$13:$B$16,$C$13:$F$16))</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H4" s="153">
+        <f>SUM(F4:G4)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I4" s="29">
+        <f>C4*H4</f>
+        <v>3120</v>
+      </c>
+      <c r="J4" s="28">
+        <f>I4-D4</f>
+        <v>120</v>
+      </c>
+      <c r="L4" s="34">
+        <f>SUM(J4:J7)</f>
+        <v>5112.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="15">
+        <v>2004</v>
+      </c>
+      <c r="C5" s="33">
+        <v>62500</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2100</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E7" si="0">($B$7-B5+1)*12</f>
+        <v>36</v>
+      </c>
+      <c r="F5" s="153">
+        <f>_xlfn.XLOOKUP(E5,$K$9:$M$9,$K$19:$M$19,0)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G5" s="153">
+        <f t="shared" ref="G5:G7" si="1">MAX(_xlfn.XLOOKUP(B5,$B$13:$B$16,$C$13:$F$16))</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H5" s="153">
+        <f t="shared" ref="H5:H7" si="2">SUM(F5:G5)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" ref="I5:I7" si="3">C5*H5</f>
+        <v>2812.5</v>
+      </c>
+      <c r="J5" s="28">
+        <f>I5-D5</f>
+        <v>712.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>2005</v>
+      </c>
+      <c r="C6" s="33">
+        <v>66000</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F6" s="153">
+        <f>_xlfn.XLOOKUP(E6,$K$9:$M$9,$K$19:$M$19,0)</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="G6" s="153">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H6" s="153">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="3"/>
+        <v>2970</v>
+      </c>
+      <c r="J6" s="28">
+        <f>I6-D6</f>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="15">
+        <v>2006</v>
+      </c>
+      <c r="C7" s="33">
+        <v>64500</v>
+      </c>
+      <c r="D7" s="33">
+        <v>500</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="153">
+        <f>_xlfn.XLOOKUP(E7,$K$9:$M$9,$K$19:$M$19,0)</f>
+        <v>2.4666666666666667E-2</v>
+      </c>
+      <c r="G7" s="153">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H7" s="153">
+        <f t="shared" si="2"/>
+        <v>4.6666666666666662E-2</v>
+      </c>
+      <c r="I7" s="29">
+        <f>C7*H7</f>
+        <v>3009.9999999999995</v>
+      </c>
+      <c r="J7" s="28">
+        <f>I7-D7</f>
+        <v>2509.9999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H8" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K9" s="5">
+        <f>VALUE(LEFT(K12,2))</f>
+        <v>12</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" ref="L9:M9" si="4">VALUE(LEFT(L12,2))</f>
+        <v>24</v>
+      </c>
+      <c r="M9" s="5">
+        <f>VALUE(LEFT(M12,2))</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="119" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="J10" s="119" t="s">
+        <v>427</v>
+      </c>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="125"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="J11" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="119" t="s">
+        <v>428</v>
+      </c>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="125"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="149"/>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>2003</v>
+      </c>
+      <c r="C13" s="150">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D13" s="150">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="150">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="150">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="J13" s="15">
+        <v>2003</v>
+      </c>
+      <c r="K13" s="151">
+        <f>D13-C13</f>
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="L13" s="151">
+        <f>E13-D13</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="M13" s="151">
+        <f>F13-E13</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N13" s="154" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>2004</v>
+      </c>
+      <c r="C14" s="150">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="150">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E14" s="150">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="J14" s="15">
+        <v>2004</v>
+      </c>
+      <c r="K14" s="151">
+        <f t="shared" ref="K14:K15" si="5">D14-C14</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="L14" s="151">
+        <f>E14-D14</f>
+        <v>1.1999999999999997E-2</v>
+      </c>
+      <c r="M14" s="151"/>
+      <c r="N14" s="150"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="15">
+        <v>2005</v>
+      </c>
+      <c r="C15" s="150">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="150">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="J15" s="15">
+        <v>2005</v>
+      </c>
+      <c r="K15" s="151">
+        <f t="shared" si="5"/>
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="150"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="15">
+        <v>2006</v>
+      </c>
+      <c r="C16" s="150">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="152">
+        <f>AVERAGE(K13:K15)</f>
+        <v>5.6666666666666662E-3</v>
+      </c>
+      <c r="L17" s="152">
+        <f t="shared" ref="L17" si="6">AVERAGE(L13:L15)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M17" s="152">
+        <f>AVERAGE(M13:M15)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="152">
+        <f>SUM(K17:$M$17)</f>
+        <v>2.4666666666666667E-2</v>
+      </c>
+      <c r="L19" s="152">
+        <f>SUM(L17:$M$17)</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="M19" s="152">
+        <f>SUM(M17:$M$17)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="J10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75D19CA-9900-B944-B77F-2BA0F8CE2D7A}">
+  <dimension ref="B2:AE53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W39" workbookViewId="0">
+      <selection activeCell="AL65" sqref="AL65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="149" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="149" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="I3" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="119" t="s">
+        <v>445</v>
+      </c>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="149"/>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>60</v>
+      </c>
+      <c r="I4" s="149"/>
+      <c r="J4" s="2">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+      <c r="N4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="15">
+        <v>1999</v>
+      </c>
+      <c r="C5" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="33">
+        <v>12500</v>
+      </c>
+      <c r="E5" s="33">
+        <v>15500</v>
+      </c>
+      <c r="F5" s="33">
+        <v>17000</v>
+      </c>
+      <c r="G5" s="33">
+        <v>18000</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1999</v>
+      </c>
+      <c r="J5" s="33">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="135">
+        <f>D5-C5</f>
+        <v>2500</v>
+      </c>
+      <c r="L5" s="135">
+        <f t="shared" ref="L5:N6" si="0">E5-D5</f>
+        <v>3000</v>
+      </c>
+      <c r="M5" s="135">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="N5" s="135">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="33">
+        <v>11000</v>
+      </c>
+      <c r="D6" s="33">
+        <v>13000</v>
+      </c>
+      <c r="E6" s="33">
+        <v>16000</v>
+      </c>
+      <c r="F6" s="33">
+        <v>18000</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="I6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="33">
+        <v>11000</v>
+      </c>
+      <c r="K6" s="135">
+        <f t="shared" ref="K6:L8" si="1">D6-C6</f>
+        <v>2000</v>
+      </c>
+      <c r="L6" s="135">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="M6" s="135">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="N6" s="135"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="15">
+        <v>2001</v>
+      </c>
+      <c r="C7" s="33">
+        <v>9500</v>
+      </c>
+      <c r="D7" s="33">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="33">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="I7" s="15">
+        <v>2001</v>
+      </c>
+      <c r="J7" s="33">
+        <v>9500</v>
+      </c>
+      <c r="K7" s="135">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="L7" s="135">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="15">
+        <v>2002</v>
+      </c>
+      <c r="C8" s="33">
+        <v>10200</v>
+      </c>
+      <c r="D8" s="33">
+        <v>13000</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="I8" s="15">
+        <v>2002</v>
+      </c>
+      <c r="J8" s="33">
+        <v>10200</v>
+      </c>
+      <c r="K8" s="135">
+        <f>D8-C8</f>
+        <v>2800</v>
+      </c>
+      <c r="L8" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="15">
+        <v>2003</v>
+      </c>
+      <c r="C9" s="33">
+        <v>11200</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="I9" s="15">
+        <v>2003</v>
+      </c>
+      <c r="J9" s="33">
+        <v>11200</v>
+      </c>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>1999</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="28">
+        <f>J5</f>
+        <v>10000</v>
+      </c>
+      <c r="E13" s="9">
+        <f>C13/D13</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="33">
+        <v>1800</v>
+      </c>
+      <c r="D14" s="28">
+        <f>SUM(J6,K5)</f>
+        <v>13500</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" ref="E14:E17" si="2">C14/D14</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="15">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="33">
+        <v>1900</v>
+      </c>
+      <c r="D15" s="28">
+        <f>SUM(J7,K6,L5)</f>
+        <v>14500</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="2"/>
+        <v>0.1310344827586207</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="15">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2400</v>
+      </c>
+      <c r="D16" s="28">
+        <f>SUM(J8,K7,L6,M5)</f>
+        <v>17200</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.13953488372093023</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="155">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="156">
+        <v>2800</v>
+      </c>
+      <c r="D17" s="157">
+        <f>SUM(J9,K8,L7,M6,N5)</f>
+        <v>20000</v>
+      </c>
+      <c r="E17" s="158">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="163" t="s">
+        <v>457</v>
+      </c>
+      <c r="E18" s="162"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" s="9">
+        <f>AVERAGE(E13:E17)</f>
+        <v>0.13878053996257686</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="33">
+        <v>145000</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23" s="25">
+        <f>E20*(C24+C27*C23)</f>
+        <v>15612.810745789897</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="33">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+      <c r="P28" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q28" s="63">
+        <v>15000</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="U28" s="28">
+        <f>Q29-Q30</f>
+        <v>2000</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+      <c r="P29" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q29" s="63">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+      <c r="P30" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q30" s="63">
+        <v>18000</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="U30" s="28">
+        <f>Q28+U28</f>
+        <v>17000</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+      <c r="P31" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q31" s="63">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+      <c r="P32" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q32" s="63">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="U32" s="9">
+        <f>Q32/(0.5*(Q28+U30))</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+      <c r="P33" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q33" s="164">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+      <c r="P34" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q34" s="164">
+        <v>0</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="U34" s="25">
+        <f>U32*(Q31+0.5*(Q29-Q31))</f>
+        <v>718.75</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+      <c r="P35" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q35" s="164">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="P38" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AD40" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="Y42" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z42" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA42" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB42" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC42" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD42" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="Y43" s="15">
+        <v>2007</v>
+      </c>
+      <c r="Z43" s="16">
+        <v>2000</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>21000</v>
+      </c>
+      <c r="AB43" s="16">
+        <v>2100</v>
+      </c>
+      <c r="AC43" s="11">
+        <f>$AA$49*AA43+$AA$50*AB43</f>
+        <v>13440</v>
+      </c>
+      <c r="AD43" s="9">
+        <f>Z43/AC43</f>
+        <v>0.14880952380952381</v>
+      </c>
+    </row>
+    <row r="44" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="Y44" s="15">
+        <v>2008</v>
+      </c>
+      <c r="Z44" s="16">
+        <v>2750</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>21500</v>
+      </c>
+      <c r="AB44" s="16">
+        <v>12650</v>
+      </c>
+      <c r="AC44" s="11">
+        <f t="shared" ref="AC44:AC46" si="3">$AA$49*AA44+$AA$50*AB44</f>
+        <v>17960</v>
+      </c>
+      <c r="AD44" s="9">
+        <f t="shared" ref="AD44:AD45" si="4">Z44/AC44</f>
+        <v>0.15311804008908686</v>
+      </c>
+    </row>
+    <row r="45" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="Y45" s="15">
+        <v>2009</v>
+      </c>
+      <c r="Z45" s="16">
+        <v>4500</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>35000</v>
+      </c>
+      <c r="AB45" s="16">
+        <v>22650</v>
+      </c>
+      <c r="AC45" s="11">
+        <f t="shared" si="3"/>
+        <v>30060</v>
+      </c>
+      <c r="AD45" s="9">
+        <f t="shared" si="4"/>
+        <v>0.1497005988023952</v>
+      </c>
+    </row>
+    <row r="46" spans="15:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y46" s="155">
+        <v>2010</v>
+      </c>
+      <c r="Z46" s="166">
+        <v>5500</v>
+      </c>
+      <c r="AA46" s="166">
+        <v>40000</v>
+      </c>
+      <c r="AB46" s="166">
+        <v>30100</v>
+      </c>
+      <c r="AC46" s="167">
+        <f t="shared" si="3"/>
+        <v>36040</v>
+      </c>
+      <c r="AD46" s="158">
+        <f>Z46/AC46</f>
+        <v>0.15260821309655939</v>
+      </c>
+    </row>
+    <row r="47" spans="15:31" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="15:31" x14ac:dyDescent="0.2">
+      <c r="AC48" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD48" s="9">
+        <f>AVERAGE(AD43:AD46)</f>
+        <v>0.15105909394939129</v>
+      </c>
+      <c r="AE48" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="26:31" x14ac:dyDescent="0.2">
+      <c r="Z49" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA49" s="164">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="26:31" x14ac:dyDescent="0.2">
+      <c r="Z50" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA50" s="164">
+        <v>0.4</v>
+      </c>
+      <c r="AD50" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="26:31" x14ac:dyDescent="0.2">
+      <c r="Z51" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA51" s="164">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="AD51" s="168">
+        <f>AD48*AA53-SUM(Z43:Z46)</f>
+        <v>2999.4435390534782</v>
+      </c>
+      <c r="AE51" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="26:31" x14ac:dyDescent="0.2">
+      <c r="Z53" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA53" s="165">
+        <v>117500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:N3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/files/temp-work-2.xlsx
+++ b/files/temp-work-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coltongearhart/Desktop/exam5/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978B12F6-3FD7-EA42-AF11-04D85F063D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE694CBA-3530-C749-839C-6080A45C0366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" firstSheet="1" activeTab="17" xr2:uid="{BB8505BC-BCB7-B340-A120-C046C43AD7BD}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1557,7 +1557,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1717,7 +1717,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1899,57 +1899,16 @@
     <xf numFmtId="6" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1981,9 +1940,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1993,11 +1949,7 @@
     <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2007,6 +1959,48 @@
     <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2512,13 +2506,13 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="111">
+      <c r="B3" s="149">
         <v>1</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="151">
         <v>44927</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="151">
         <v>45056</v>
       </c>
       <c r="E3" s="52">
@@ -2535,9 +2529,9 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="111"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="53">
         <v>45275</v>
       </c>
@@ -2552,9 +2546,9 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="111"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="55">
         <v>45289</v>
       </c>
@@ -2566,13 +2560,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="114">
+      <c r="B6" s="152">
         <v>2</v>
       </c>
-      <c r="C6" s="112">
+      <c r="C6" s="150">
         <v>45000</v>
       </c>
-      <c r="D6" s="112">
+      <c r="D6" s="150">
         <v>45038</v>
       </c>
       <c r="E6" s="55">
@@ -2589,9 +2583,9 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="114"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="53">
         <v>45148</v>
       </c>
@@ -2603,9 +2597,9 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="114"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="55">
         <v>45184</v>
       </c>
@@ -2624,9 +2618,9 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="114"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
       <c r="E9" s="55">
         <v>45234</v>
       </c>
@@ -2638,13 +2632,13 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="111">
+      <c r="B10" s="149">
         <v>3</v>
       </c>
-      <c r="C10" s="112">
+      <c r="C10" s="150">
         <v>45048</v>
       </c>
-      <c r="D10" s="112">
+      <c r="D10" s="150">
         <v>45152</v>
       </c>
       <c r="E10" s="55">
@@ -2668,9 +2662,9 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="53">
         <v>45206</v>
       </c>
@@ -2692,9 +2686,9 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
       <c r="E12" s="55">
         <v>45281</v>
       </c>
@@ -2836,43 +2830,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="156" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="H2" s="119" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="H2" s="156" t="s">
         <v>280</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="H3" s="118" t="s">
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="H3" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="118"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="2">
         <v>12</v>
       </c>
@@ -2885,7 +2879,7 @@
       <c r="F4" s="2">
         <v>48</v>
       </c>
-      <c r="H4" s="118"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="79" t="s">
         <v>9</v>
       </c>
@@ -3039,13 +3033,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
       <c r="H12" s="3" t="s">
         <v>26</v>
       </c>
@@ -3066,22 +3060,22 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
       <c r="H13" s="3"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="118"/>
+      <c r="B14" s="157"/>
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -3115,13 +3109,13 @@
       <c r="F15" s="15">
         <v>50</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
     </row>
     <row r="16" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15">
@@ -3137,15 +3131,15 @@
         <v>100</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="H16" s="118" t="s">
+      <c r="H16" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="119" t="s">
+      <c r="I16" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
     </row>
     <row r="17" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15">
@@ -3159,7 +3153,7 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="H17" s="118"/>
+      <c r="H17" s="157"/>
       <c r="I17" s="2">
         <v>12</v>
       </c>
@@ -3282,27 +3276,27 @@
       <c r="K22" s="15"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" s="119" t="s">
+      <c r="H24" s="156" t="s">
         <v>282</v>
       </c>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H25" s="118" t="s">
+      <c r="H25" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="119" t="s">
+      <c r="I25" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
     </row>
     <row r="26" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="118"/>
+      <c r="H26" s="157"/>
       <c r="I26" s="79" t="s">
         <v>9</v>
       </c>
@@ -3447,27 +3441,27 @@
       </c>
     </row>
     <row r="37" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H37" s="119" t="s">
+      <c r="H37" s="156" t="s">
         <v>283</v>
       </c>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
     </row>
     <row r="38" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H38" s="118" t="s">
+      <c r="H38" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="119" t="s">
+      <c r="I38" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
     </row>
     <row r="39" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H39" s="118"/>
+      <c r="H39" s="157"/>
       <c r="I39" s="2">
         <v>12</v>
       </c>
@@ -3615,12 +3609,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:L25"/>
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:H17"/>
@@ -3628,11 +3621,12 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3661,10 +3655,10 @@
       <c r="D2" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="160" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="123"/>
+      <c r="F2" s="161"/>
       <c r="G2" s="7" t="s">
         <v>307</v>
       </c>
@@ -3888,30 +3882,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="156" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="121" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="159" t="s">
         <v>311</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="156" t="s">
         <v>314</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
     </row>
     <row r="3" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="121"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="48" t="s">
         <v>318</v>
       </c>
@@ -3924,8 +3918,8 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="G3" s="159"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="48" t="s">
         <v>318</v>
       </c>
@@ -4050,19 +4044,19 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="156" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="125"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="121"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="48" t="s">
         <v>318</v>
       </c>
@@ -4172,12 +4166,12 @@
       <c r="I15" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="119" t="s">
+      <c r="J15" s="156" t="s">
         <v>316</v>
       </c>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="125"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I16" s="48"/>
@@ -4208,7 +4202,7 @@
         <f>FORECAST($M$12,E11:F11,$L4:$M4)</f>
         <v>10000</v>
       </c>
-      <c r="M17" s="130" t="s">
+      <c r="M17" s="116" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4224,7 +4218,7 @@
         <f>FORECAST($L$12,D12:E12,$K5:$L5)</f>
         <v>7030</v>
       </c>
-      <c r="L18" s="130" t="s">
+      <c r="L18" s="116" t="s">
         <v>327</v>
       </c>
       <c r="M18" s="15"/>
@@ -4237,7 +4231,7 @@
         <f>FORECAST($K$12,C13:D13,$J6:$K6)</f>
         <v>3900</v>
       </c>
-      <c r="K19" s="130" t="s">
+      <c r="K19" s="116" t="s">
         <v>326</v>
       </c>
       <c r="L19" s="15"/>
@@ -4247,11 +4241,11 @@
       <c r="I22" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="119" t="s">
+      <c r="J22" s="156" t="s">
         <v>319</v>
       </c>
-      <c r="K22" s="119"/>
-      <c r="L22" s="125"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I23" s="48"/>
@@ -4267,15 +4261,15 @@
       <c r="I24" s="15">
         <v>2009</v>
       </c>
-      <c r="J24" s="126">
+      <c r="J24" s="112">
         <f>K17/J17</f>
         <v>2.3028500038487918</v>
       </c>
-      <c r="K24" s="126">
+      <c r="K24" s="112">
         <f>L17/K17</f>
         <v>1.2487371206786617</v>
       </c>
-      <c r="L24" s="129" t="s">
+      <c r="L24" s="115" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4283,16 +4277,16 @@
       <c r="I25" s="15">
         <v>2010</v>
       </c>
-      <c r="J25" s="126">
+      <c r="J25" s="112">
         <f t="shared" ref="J25" si="2">K18/J18</f>
         <v>1.9386997757107305</v>
       </c>
-      <c r="K25" s="126"/>
+      <c r="K25" s="112"/>
       <c r="L25" s="22"/>
     </row>
     <row r="26" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I26" s="15"/>
-      <c r="J26" s="126"/>
+      <c r="J26" s="112"/>
       <c r="K26" s="22"/>
       <c r="L26" s="15"/>
     </row>
@@ -4316,11 +4310,11 @@
       <c r="I29" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="127">
+      <c r="J29" s="113">
         <f>AVERAGE(J24:J25)</f>
         <v>2.1207748897797609</v>
       </c>
-      <c r="K29" s="127">
+      <c r="K29" s="113">
         <f>AVERAGE(K24:K25)</f>
         <v>1.2487371206786617</v>
       </c>
@@ -4346,16 +4340,16 @@
       </c>
     </row>
     <row r="34" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P34" s="121" t="s">
+      <c r="P34" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="Q34" s="119" t="s">
+      <c r="Q34" s="156" t="s">
         <v>310</v>
       </c>
-      <c r="R34" s="119"/>
-      <c r="S34" s="119"/>
-      <c r="T34" s="119"/>
-      <c r="U34" s="121" t="s">
+      <c r="R34" s="156"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="159" t="s">
         <v>311</v>
       </c>
       <c r="W34" t="s">
@@ -4376,7 +4370,7 @@
       </c>
     </row>
     <row r="35" spans="16:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="P35" s="121"/>
+      <c r="P35" s="159"/>
       <c r="Q35" s="48" t="s">
         <v>318</v>
       </c>
@@ -4389,7 +4383,7 @@
       <c r="T35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U35" s="121"/>
+      <c r="U35" s="159"/>
       <c r="W35" s="3" t="s">
         <v>315</v>
       </c>
@@ -4466,18 +4460,18 @@
       <c r="U38" s="15">
         <v>901</v>
       </c>
-      <c r="W38" s="121" t="s">
+      <c r="W38" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="X38" s="119" t="s">
+      <c r="X38" s="156" t="s">
         <v>336</v>
       </c>
-      <c r="Y38" s="119"/>
-      <c r="Z38" s="119"/>
-      <c r="AA38" s="119"/>
+      <c r="Y38" s="156"/>
+      <c r="Z38" s="156"/>
+      <c r="AA38" s="156"/>
     </row>
     <row r="39" spans="16:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="W39" s="121"/>
+      <c r="W39" s="159"/>
       <c r="X39" s="48" t="s">
         <v>318</v>
       </c>
@@ -4504,7 +4498,7 @@
         <v>462.40000000000003</v>
       </c>
       <c r="Z40" s="13">
-        <f t="shared" ref="Y40:AA41" si="3">Z$35*$U36</f>
+        <f t="shared" ref="Z40" si="3">Z$35*$U36</f>
         <v>663.85</v>
       </c>
       <c r="AA40" s="13">
@@ -4513,15 +4507,15 @@
       </c>
     </row>
     <row r="41" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P41" s="121" t="s">
+      <c r="P41" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="119" t="s">
+      <c r="Q41" s="156" t="s">
         <v>313</v>
       </c>
-      <c r="R41" s="119"/>
-      <c r="S41" s="119"/>
-      <c r="T41" s="119"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="156"/>
       <c r="W41" s="15">
         <v>2010</v>
       </c>
@@ -4542,7 +4536,7 @@
       </c>
     </row>
     <row r="42" spans="16:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="P42" s="121"/>
+      <c r="P42" s="159"/>
       <c r="Q42" s="48" t="s">
         <v>318</v>
       </c>
@@ -4618,30 +4612,30 @@
       </c>
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
-      <c r="W45" s="132"/>
-      <c r="X45" s="125"/>
-      <c r="Y45" s="133" t="s">
+      <c r="W45" s="118"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="Z45" s="133" t="s">
+      <c r="Z45" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="AA45" s="125"/>
+      <c r="AA45" s="2"/>
     </row>
     <row r="46" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="W46" s="121" t="s">
+      <c r="W46" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="X46" s="119" t="s">
+      <c r="X46" s="156" t="s">
         <v>337</v>
       </c>
-      <c r="Y46" s="119"/>
-      <c r="Z46" s="119"/>
-      <c r="AA46" s="119"/>
+      <c r="Y46" s="156"/>
+      <c r="Z46" s="156"/>
+      <c r="AA46" s="156"/>
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="16:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="W47" s="121"/>
+      <c r="W47" s="159"/>
       <c r="X47" s="48" t="s">
         <v>318</v>
       </c>
@@ -4657,15 +4651,15 @@
       <c r="AB47" s="4"/>
     </row>
     <row r="48" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P48" s="121" t="s">
+      <c r="P48" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="119" t="s">
+      <c r="Q48" s="156" t="s">
         <v>314</v>
       </c>
-      <c r="R48" s="119"/>
-      <c r="S48" s="119"/>
-      <c r="T48" s="119"/>
+      <c r="R48" s="156"/>
+      <c r="S48" s="156"/>
+      <c r="T48" s="156"/>
       <c r="W48" s="15">
         <v>2009</v>
       </c>
@@ -4685,7 +4679,7 @@
       <c r="AB48" s="4"/>
     </row>
     <row r="49" spans="16:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="P49" s="121"/>
+      <c r="P49" s="159"/>
       <c r="Q49" s="48" t="s">
         <v>318</v>
       </c>
@@ -4776,35 +4770,35 @@
       <c r="T52" s="15"/>
     </row>
     <row r="55" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P55" s="121" t="s">
+      <c r="P55" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="119" t="s">
+      <c r="Q55" s="156" t="s">
         <v>333</v>
       </c>
-      <c r="R55" s="119"/>
-      <c r="S55" s="119"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="119"/>
-      <c r="V55" s="119"/>
+      <c r="R55" s="156"/>
+      <c r="S55" s="156"/>
+      <c r="T55" s="156"/>
+      <c r="U55" s="156"/>
+      <c r="V55" s="156"/>
     </row>
     <row r="56" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P56" s="121"/>
-      <c r="Q56" s="119" t="s">
+      <c r="P56" s="159"/>
+      <c r="Q56" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="R56" s="119"/>
-      <c r="S56" s="119" t="s">
+      <c r="R56" s="156"/>
+      <c r="S56" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="T56" s="119"/>
-      <c r="U56" s="119" t="s">
+      <c r="T56" s="156"/>
+      <c r="U56" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="V56" s="119"/>
+      <c r="V56" s="156"/>
     </row>
     <row r="57" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P57" s="121"/>
+      <c r="P57" s="159"/>
       <c r="Q57" s="2" t="s">
         <v>334</v>
       </c>
@@ -4828,16 +4822,16 @@
       <c r="P58" s="15">
         <v>2009</v>
       </c>
-      <c r="S58" s="124">
+      <c r="S58" s="111">
         <v>1392.49</v>
       </c>
-      <c r="T58" s="131">
+      <c r="T58" s="117">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="U58" s="124">
+      <c r="U58" s="111">
         <v>4198.5</v>
       </c>
-      <c r="V58" s="131">
+      <c r="V58" s="117">
         <v>1.0200000000000001E-3</v>
       </c>
     </row>
@@ -4845,17 +4839,33 @@
       <c r="P59" s="15">
         <v>2010</v>
       </c>
-      <c r="S59" s="124">
+      <c r="S59" s="111">
         <v>1798.09</v>
       </c>
-      <c r="T59" s="131">
+      <c r="T59" s="117">
         <v>1.97E-3</v>
       </c>
-      <c r="U59" s="124"/>
-      <c r="V59" s="131"/>
+      <c r="U59" s="111"/>
+      <c r="V59" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:T48"/>
     <mergeCell ref="W38:W39"/>
     <mergeCell ref="X38:AA38"/>
     <mergeCell ref="W46:W47"/>
@@ -4865,22 +4875,6 @@
     <mergeCell ref="S56:T56"/>
     <mergeCell ref="Q56:R56"/>
     <mergeCell ref="Q55:V55"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4902,25 +4896,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="G2" s="121" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="G2" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="156" t="s">
         <v>349</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="121"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4930,7 +4924,7 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="121"/>
+      <c r="G3" s="159"/>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4957,15 +4951,15 @@
       <c r="G4" s="15">
         <v>2009</v>
       </c>
-      <c r="H4" s="136">
+      <c r="H4" s="121">
         <f>(C4-C11)/C18</f>
         <v>18.028985507246375</v>
       </c>
-      <c r="I4" s="136">
+      <c r="I4" s="121">
         <f t="shared" ref="I4:J4" si="0">(D4-D11)/D18</f>
         <v>16.982035928143713</v>
       </c>
-      <c r="J4" s="136">
+      <c r="J4" s="121">
         <f t="shared" si="0"/>
         <v>23.166666666666668</v>
       </c>
@@ -4984,15 +4978,15 @@
       <c r="G5" s="15">
         <v>2010</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="121">
         <f t="shared" ref="H5:I5" si="1">(C5-C12)/C19</f>
         <v>19.044088176352705</v>
       </c>
-      <c r="I5" s="136">
+      <c r="I5" s="121">
         <f t="shared" si="1"/>
         <v>23.985714285714284</v>
       </c>
-      <c r="J5" s="135"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="15">
@@ -5006,35 +5000,35 @@
       <c r="G6" s="15">
         <v>2011</v>
       </c>
-      <c r="H6" s="136">
+      <c r="H6" s="121">
         <f>(C6-C13)/C20</f>
         <v>22.519540229885056</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="123" t="s">
         <v>357</v>
       </c>
-      <c r="J6" s="135"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="156" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="G9" s="121" t="s">
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="G9" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="156" t="s">
         <v>349</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="121"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -5044,7 +5038,7 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="121"/>
+      <c r="G10" s="159"/>
       <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
@@ -5071,15 +5065,15 @@
       <c r="G11" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="H11" s="137">
+      <c r="H11" s="122">
         <f>H5/H4-1</f>
         <v>5.6303926180335084E-2</v>
       </c>
-      <c r="I11" s="137">
+      <c r="I11" s="122">
         <f>I5/I4-1</f>
         <v>0.41241688494861961</v>
       </c>
-      <c r="J11" s="136"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="15">
@@ -5095,14 +5089,14 @@
       <c r="G12" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="H12" s="137">
+      <c r="H12" s="122">
         <f>H6/H5-1</f>
         <v>0.18249506205541866</v>
       </c>
-      <c r="I12" s="139" t="s">
+      <c r="I12" s="124" t="s">
         <v>358</v>
       </c>
-      <c r="J12" s="135"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="15">
@@ -5114,9 +5108,9 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
@@ -5125,25 +5119,25 @@
       <c r="H14" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="156" t="s">
         <v>348</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="G16" s="121" t="s">
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="G16" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="156" t="s">
         <v>353</v>
       </c>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="121"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5153,7 +5147,7 @@
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="121"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5180,15 +5174,15 @@
       <c r="G18" s="15">
         <v>2009</v>
       </c>
-      <c r="H18" s="136">
+      <c r="H18" s="121">
         <f>H$6*(1+$C$23)^($G18+(VALUE(LEFT(H$17,2))/12-1)-$G$20)</f>
         <v>19.306876054428201</v>
       </c>
-      <c r="I18" s="136">
+      <c r="I18" s="121">
         <f>I$5*(1+$C$23)^($G18+(VALUE(LEFT(I$17,2))/12-1)-$G$20)</f>
         <v>22.208994708994705</v>
       </c>
-      <c r="J18" s="136">
+      <c r="J18" s="121">
         <f>J$4*(1+$C$23)^($G18+(VALUE(LEFT(J$17,2))/12-1)-$G$20)</f>
         <v>23.166666666666668</v>
       </c>
@@ -5207,15 +5201,15 @@
       <c r="G19" s="15">
         <v>2010</v>
       </c>
-      <c r="H19" s="136">
+      <c r="H19" s="121">
         <f t="shared" ref="H19" si="2">H$6*(1+$C$23)^($G19+(VALUE(LEFT(H$17,2))/12-1)-$G$20)</f>
         <v>20.851426138782458</v>
       </c>
-      <c r="I19" s="136">
+      <c r="I19" s="121">
         <f>I$5*(1+$C$23)^($G19+(VALUE(LEFT(I$17,2))/12-1)-$G$20)</f>
         <v>23.985714285714284</v>
       </c>
-      <c r="J19" s="138" t="s">
+      <c r="J19" s="123" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5231,14 +5225,14 @@
       <c r="G20" s="15">
         <v>2011</v>
       </c>
-      <c r="H20" s="136">
+      <c r="H20" s="121">
         <f>H$6*(1+$C$23)^($G20+(VALUE(LEFT(H$17,2))/12-1)-$G$20)</f>
         <v>22.519540229885056</v>
       </c>
-      <c r="I20" s="138" t="s">
+      <c r="I20" s="123" t="s">
         <v>360</v>
       </c>
-      <c r="J20" s="135"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H21" s="7" t="s">
@@ -5252,17 +5246,17 @@
       <c r="C23" s="77">
         <v>0.08</v>
       </c>
-      <c r="G23" s="121" t="s">
+      <c r="G23" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="119" t="s">
+      <c r="H23" s="156" t="s">
         <v>354</v>
       </c>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G24" s="121"/>
+      <c r="G24" s="159"/>
       <c r="H24" s="2" t="s">
         <v>4</v>
       </c>
@@ -5277,15 +5271,15 @@
       <c r="G25" s="15">
         <v>2009</v>
       </c>
-      <c r="H25" s="135">
+      <c r="H25" s="120">
         <f>H18*C18+C11</f>
         <v>10371.872238777731</v>
       </c>
-      <c r="I25" s="135">
+      <c r="I25" s="120">
         <f t="shared" ref="I25" si="3">I18*D18+D11</f>
         <v>12455.902116402116</v>
       </c>
-      <c r="J25" s="135">
+      <c r="J25" s="120">
         <f>J18*E18+E11</f>
         <v>13053</v>
       </c>
@@ -5294,11 +5288,11 @@
       <c r="G26" s="15">
         <v>2010</v>
       </c>
-      <c r="H26" s="135">
+      <c r="H26" s="120">
         <f t="shared" ref="H26:I26" si="4">H19*C19+C12</f>
         <v>13868.861643252447</v>
       </c>
-      <c r="I26" s="135">
+      <c r="I26" s="120">
         <f t="shared" si="4"/>
         <v>17391</v>
       </c>
@@ -5308,11 +5302,11 @@
       <c r="G27" s="15">
         <v>2011</v>
       </c>
-      <c r="H27" s="135">
+      <c r="H27" s="120">
         <f>H20*C20+C13</f>
         <v>12924</v>
       </c>
-      <c r="I27" s="138" t="s">
+      <c r="I27" s="123" t="s">
         <v>362</v>
       </c>
       <c r="J27" s="33"/>
@@ -5324,17 +5318,17 @@
       <c r="I28" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G30" s="121" t="s">
+      <c r="G30" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="119" t="s">
+      <c r="H30" s="156" t="s">
         <v>356</v>
       </c>
-      <c r="I30" s="119"/>
-      <c r="J30" s="125"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="121"/>
+      <c r="G31" s="159"/>
       <c r="H31" s="2" t="s">
         <v>320</v>
       </c>
@@ -5355,7 +5349,7 @@
         <f>J25/I25</f>
         <v>1.0479369441103441</v>
       </c>
-      <c r="J32" s="135"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" s="15">
@@ -5365,7 +5359,7 @@
         <f>I26/H26</f>
         <v>1.2539601625098886</v>
       </c>
-      <c r="I33" s="128" t="s">
+      <c r="I33" s="114" t="s">
         <v>363</v>
       </c>
       <c r="J33" s="33"/>
@@ -5411,6 +5405,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="G30:G31"/>
@@ -5421,12 +5421,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5516,7 +5510,7 @@
       <c r="D4" s="16">
         <v>345000</v>
       </c>
-      <c r="E4" s="141">
+      <c r="E4" s="126">
         <f>($C$16-B4+1)*12</f>
         <v>36</v>
       </c>
@@ -5555,7 +5549,7 @@
       <c r="D5" s="16">
         <v>300000</v>
       </c>
-      <c r="E5" s="141">
+      <c r="E5" s="126">
         <f t="shared" ref="E5:E6" si="0">($C$16-B5+1)*12</f>
         <v>24</v>
       </c>
@@ -5594,7 +5588,7 @@
       <c r="D6" s="16">
         <v>235000</v>
       </c>
-      <c r="E6" s="141">
+      <c r="E6" s="126">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5652,7 +5646,7 @@
       <c r="J10" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="K10" s="143">
+      <c r="K10" s="128">
         <f>SUM(K4:K6)</f>
         <v>89875.406684412883</v>
       </c>
@@ -5700,7 +5694,7 @@
       <c r="B16" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="119">
         <v>2022</v>
       </c>
       <c r="R16" s="7" t="s">
@@ -5728,7 +5722,7 @@
       <c r="B18" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="119">
         <v>2024</v>
       </c>
       <c r="N18" s="15">
@@ -5789,7 +5783,7 @@
       <c r="O23" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="Q23" s="144" t="s">
+      <c r="Q23" s="129" t="s">
         <v>390</v>
       </c>
       <c r="R23" s="12" t="s">
@@ -5811,7 +5805,7 @@
       <c r="O24" s="15">
         <v>2.5</v>
       </c>
-      <c r="Q24" s="144" t="s">
+      <c r="Q24" s="129" t="s">
         <v>389</v>
       </c>
       <c r="R24" s="12" t="s">
@@ -5836,7 +5830,7 @@
       <c r="O25" s="15">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q25" s="144" t="s">
+      <c r="Q25" s="129" t="s">
         <v>391</v>
       </c>
       <c r="R25" s="12" t="s">
@@ -5847,7 +5841,7 @@
         <v>48</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" ref="T24:T25" si="6">_xlfn.XLOOKUP(S25,$N$24:$N$28,$O$24:$O$28)</f>
+        <f t="shared" ref="T25" si="6">_xlfn.XLOOKUP(S25,$N$24:$N$28,$O$24:$O$28)</f>
         <v>1.4</v>
       </c>
     </row>
@@ -5866,7 +5860,7 @@
       <c r="O27" s="15">
         <v>1.4</v>
       </c>
-      <c r="R27" s="146" t="s">
+      <c r="R27" s="131" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5877,7 +5871,7 @@
       <c r="O28" s="15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R28" s="145" t="str">
+      <c r="R28" s="130" t="str">
         <f>"AY 2021 Exp Paid Claims between "&amp;$S$23&amp;" - "&amp;S24&amp;" months = "</f>
         <v xml:space="preserve">AY 2021 Exp Paid Claims between 24 - 36 months = </v>
       </c>
@@ -5890,7 +5884,7 @@
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="R29" s="145" t="str">
+      <c r="R29" s="130" t="str">
         <f>"AY 2021 Exp Paid Claims between "&amp;$S$23&amp;" - "&amp;S25&amp;" months = "</f>
         <v xml:space="preserve">AY 2021 Exp Paid Claims between 24 - 48 months = </v>
       </c>
@@ -5903,7 +5897,7 @@
       <c r="N31" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="O31" s="134">
+      <c r="O31" s="119">
         <v>2022</v>
       </c>
     </row>
@@ -5924,7 +5918,7 @@
       <c r="N34" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="O34" s="142">
+      <c r="O34" s="127">
         <v>45383</v>
       </c>
     </row>
@@ -5951,25 +5945,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="156" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="G2" s="118" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="G2" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="156" t="s">
         <v>402</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="118"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -5979,7 +5973,7 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="118"/>
+      <c r="G3" s="157"/>
       <c r="H3" s="2" t="s">
         <v>320</v>
       </c>
@@ -6035,7 +6029,7 @@
         <v>1.1172806785051683</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="135"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="15">
@@ -6071,18 +6065,18 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="156" t="s">
         <v>397</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
       <c r="G9" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="H9" s="147">
+      <c r="H9" s="132">
         <f>PRODUCT(H7:I7)</f>
         <v>1.1193666738427805</v>
       </c>
@@ -6091,7 +6085,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -6127,14 +6121,14 @@
         <v>4657</v>
       </c>
       <c r="E12" s="33"/>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="156" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="15">
@@ -6145,7 +6139,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
-      <c r="G13" s="118"/>
+      <c r="G13" s="157"/>
       <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6188,7 +6182,7 @@
         <f>D12/D5</f>
         <v>0.27618313367334835</v>
       </c>
-      <c r="J15" s="135"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -6226,7 +6220,7 @@
       <c r="G18" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="H18" s="147">
+      <c r="H18" s="132">
         <f>H16*C19</f>
         <v>0.28146771236504381</v>
       </c>
@@ -6316,28 +6310,28 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="133" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="133" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="133" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="133" t="s">
         <v>417</v>
       </c>
-      <c r="F3" s="148" t="s">
+      <c r="F3" s="133" t="s">
         <v>418</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="133" t="s">
         <v>419</v>
       </c>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="133" t="s">
         <v>420</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="133" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6462,7 +6456,7 @@
       <c r="H10" t="s">
         <v>277</v>
       </c>
-      <c r="I10" s="140">
+      <c r="I10" s="125">
         <f>SUM(I4:I7)*1000</f>
         <v>9869689.9999999981</v>
       </c>
@@ -6557,15 +6551,15 @@
         <f>($B$7-B4+1)*12</f>
         <v>48</v>
       </c>
-      <c r="F4" s="153">
+      <c r="F4" s="137">
         <f>_xlfn.XLOOKUP(E4,$K$9:$M$9,$K$19:$M$19,0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="153">
+      <c r="G4" s="137">
         <f>MAX(_xlfn.XLOOKUP(B4,$B$13:$B$16,$C$13:$F$16))</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H4" s="153">
+      <c r="H4" s="137">
         <f>SUM(F4:G4)</f>
         <v>4.8000000000000001E-2</v>
       </c>
@@ -6596,20 +6590,20 @@
         <f t="shared" ref="E5:E7" si="0">($B$7-B5+1)*12</f>
         <v>36</v>
       </c>
-      <c r="F5" s="153">
+      <c r="F5" s="137">
         <f>_xlfn.XLOOKUP(E5,$K$9:$M$9,$K$19:$M$19,0)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G5" s="153">
+      <c r="G5" s="137">
         <f t="shared" ref="G5:G7" si="1">MAX(_xlfn.XLOOKUP(B5,$B$13:$B$16,$C$13:$F$16))</f>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H5" s="153">
+      <c r="H5" s="137">
         <f t="shared" ref="H5:H7" si="2">SUM(F5:G5)</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I5" s="29">
-        <f t="shared" ref="I5:I7" si="3">C5*H5</f>
+        <f t="shared" ref="I5:I6" si="3">C5*H5</f>
         <v>2812.5</v>
       </c>
       <c r="J5" s="28">
@@ -6631,15 +6625,15 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F6" s="153">
+      <c r="F6" s="137">
         <f>_xlfn.XLOOKUP(E6,$K$9:$M$9,$K$19:$M$19,0)</f>
         <v>1.9E-2</v>
       </c>
-      <c r="G6" s="153">
+      <c r="G6" s="137">
         <f t="shared" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H6" s="153">
+      <c r="H6" s="137">
         <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -6666,15 +6660,15 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F7" s="153">
+      <c r="F7" s="137">
         <f>_xlfn.XLOOKUP(E7,$K$9:$M$9,$K$19:$M$19,0)</f>
         <v>2.4666666666666667E-2</v>
       </c>
-      <c r="G7" s="153">
+      <c r="G7" s="137">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H7" s="153">
+      <c r="H7" s="137">
         <f t="shared" si="2"/>
         <v>4.6666666666666662E-2</v>
       </c>
@@ -6707,7 +6701,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" ref="L9:M9" si="4">VALUE(LEFT(L12,2))</f>
+        <f t="shared" ref="L9" si="4">VALUE(LEFT(L12,2))</f>
         <v>24</v>
       </c>
       <c r="M9" s="5">
@@ -6716,47 +6710,47 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="156" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="156" t="s">
         <v>427</v>
       </c>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="125"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
-      <c r="J11" s="118" t="s">
+      <c r="J11" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="119" t="s">
+      <c r="K11" s="156" t="s">
         <v>428</v>
       </c>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="125"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="149"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="2">
         <v>12</v>
       </c>
@@ -6771,7 +6765,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="118"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="79" t="s">
         <v>9</v>
       </c>
@@ -6787,36 +6781,36 @@
       <c r="B13" s="15">
         <v>2003</v>
       </c>
-      <c r="C13" s="150">
+      <c r="C13" s="134">
         <v>2.4E-2</v>
       </c>
-      <c r="D13" s="150">
+      <c r="D13" s="134">
         <v>0.03</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="134">
         <v>0.04</v>
       </c>
-      <c r="F13" s="150">
+      <c r="F13" s="134">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
       <c r="J13" s="15">
         <v>2003</v>
       </c>
-      <c r="K13" s="151">
+      <c r="K13" s="135">
         <f>D13-C13</f>
         <v>5.9999999999999984E-3</v>
       </c>
-      <c r="L13" s="151">
+      <c r="L13" s="135">
         <f>E13-D13</f>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="M13" s="151">
+      <c r="M13" s="135">
         <f>F13-E13</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N13" s="154" t="s">
+      <c r="N13" s="138" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6824,88 +6818,88 @@
       <c r="B14" s="15">
         <v>2004</v>
       </c>
-      <c r="C14" s="150">
+      <c r="C14" s="134">
         <v>0.02</v>
       </c>
-      <c r="D14" s="150">
+      <c r="D14" s="134">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E14" s="150">
+      <c r="E14" s="134">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
       <c r="J14" s="15">
         <v>2004</v>
       </c>
-      <c r="K14" s="151">
+      <c r="K14" s="135">
         <f t="shared" ref="K14:K15" si="5">D14-C14</f>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="L14" s="151">
+      <c r="L14" s="135">
         <f>E14-D14</f>
         <v>1.1999999999999997E-2</v>
       </c>
-      <c r="M14" s="151"/>
-      <c r="N14" s="150"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="134"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="15">
         <v>2005</v>
       </c>
-      <c r="C15" s="150">
+      <c r="C15" s="134">
         <v>0.02</v>
       </c>
-      <c r="D15" s="150">
+      <c r="D15" s="134">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
       <c r="J15" s="15">
         <v>2005</v>
       </c>
-      <c r="K15" s="151">
+      <c r="K15" s="135">
         <f t="shared" si="5"/>
         <v>5.9999999999999984E-3</v>
       </c>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="150"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="134"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="15">
         <v>2006</v>
       </c>
-      <c r="C16" s="150">
+      <c r="C16" s="134">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
         <v>401</v>
       </c>
-      <c r="K17" s="152">
+      <c r="K17" s="136">
         <f>AVERAGE(K13:K15)</f>
         <v>5.6666666666666662E-3</v>
       </c>
-      <c r="L17" s="152">
+      <c r="L17" s="136">
         <f t="shared" ref="L17" si="6">AVERAGE(L13:L15)</f>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="M17" s="152">
+      <c r="M17" s="136">
         <f>AVERAGE(M13:M15)</f>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -6917,15 +6911,15 @@
       <c r="J19" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="152">
+      <c r="K19" s="136">
         <f>SUM(K17:$M$17)</f>
         <v>2.4666666666666667E-2</v>
       </c>
-      <c r="L19" s="152">
+      <c r="L19" s="136">
         <f>SUM(L17:$M$17)</f>
         <v>1.9E-2</v>
       </c>
-      <c r="M19" s="152">
+      <c r="M19" s="136">
         <f>SUM(M17:$M$17)</f>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -6968,46 +6962,46 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="149" t="s">
+      <c r="J2" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="156" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="I3" s="149" t="s">
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="I3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="156" t="s">
         <v>445</v>
       </c>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="149"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="2">
         <v>12</v>
       </c>
@@ -7023,7 +7017,7 @@
       <c r="G4" s="2">
         <v>60</v>
       </c>
-      <c r="I4" s="149"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="2">
         <v>12</v>
       </c>
@@ -7065,19 +7059,19 @@
       <c r="J5" s="33">
         <v>10000</v>
       </c>
-      <c r="K5" s="135">
+      <c r="K5" s="120">
         <f>D5-C5</f>
         <v>2500</v>
       </c>
-      <c r="L5" s="135">
+      <c r="L5" s="120">
         <f t="shared" ref="L5:N6" si="0">E5-D5</f>
         <v>3000</v>
       </c>
-      <c r="M5" s="135">
+      <c r="M5" s="120">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="N5" s="135">
+      <c r="N5" s="120">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -7105,19 +7099,19 @@
       <c r="J6" s="33">
         <v>11000</v>
       </c>
-      <c r="K6" s="135">
-        <f t="shared" ref="K6:L8" si="1">D6-C6</f>
+      <c r="K6" s="120">
+        <f t="shared" ref="K6:L7" si="1">D6-C6</f>
         <v>2000</v>
       </c>
-      <c r="L6" s="135">
+      <c r="L6" s="120">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="M6" s="135">
+      <c r="M6" s="120">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="N6" s="135"/>
+      <c r="N6" s="120"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="15">
@@ -7140,16 +7134,16 @@
       <c r="J7" s="33">
         <v>9500</v>
       </c>
-      <c r="K7" s="135">
+      <c r="K7" s="120">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="L7" s="135">
+      <c r="L7" s="120">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
@@ -7170,15 +7164,15 @@
       <c r="J8" s="33">
         <v>10200</v>
       </c>
-      <c r="K8" s="135">
+      <c r="K8" s="120">
         <f>D8-C8</f>
         <v>2800</v>
       </c>
-      <c r="L8" s="138" t="s">
+      <c r="L8" s="123" t="s">
         <v>461</v>
       </c>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
@@ -7197,10 +7191,10 @@
       <c r="J9" s="33">
         <v>11200</v>
       </c>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
@@ -7286,34 +7280,34 @@
       </c>
     </row>
     <row r="17" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="155">
+      <c r="B17" s="139">
         <v>2003</v>
       </c>
-      <c r="C17" s="156">
+      <c r="C17" s="140">
         <v>2800</v>
       </c>
-      <c r="D17" s="157">
+      <c r="D17" s="141">
         <f>SUM(J9,K8,L7,M6,N5)</f>
         <v>20000</v>
       </c>
-      <c r="E17" s="158">
+      <c r="E17" s="142">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="163" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="143" t="s">
         <v>457</v>
       </c>
-      <c r="E18" s="162"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
@@ -7457,7 +7451,7 @@
       <c r="P33" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="Q33" s="164">
+      <c r="Q33" s="144">
         <v>0.5</v>
       </c>
     </row>
@@ -7466,7 +7460,7 @@
       <c r="P34" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="Q34" s="164">
+      <c r="Q34" s="144">
         <v>0</v>
       </c>
       <c r="T34" s="12" t="s">
@@ -7485,7 +7479,7 @@
       <c r="P35" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="Q35" s="164">
+      <c r="Q35" s="144">
         <v>0.5</v>
       </c>
     </row>
@@ -7599,23 +7593,23 @@
       </c>
     </row>
     <row r="46" spans="15:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y46" s="155">
+      <c r="Y46" s="139">
         <v>2010</v>
       </c>
-      <c r="Z46" s="166">
+      <c r="Z46" s="146">
         <v>5500</v>
       </c>
-      <c r="AA46" s="166">
+      <c r="AA46" s="146">
         <v>40000</v>
       </c>
-      <c r="AB46" s="166">
+      <c r="AB46" s="146">
         <v>30100</v>
       </c>
-      <c r="AC46" s="167">
+      <c r="AC46" s="147">
         <f t="shared" si="3"/>
         <v>36040</v>
       </c>
-      <c r="AD46" s="158">
+      <c r="AD46" s="142">
         <f>Z46/AC46</f>
         <v>0.15260821309655939</v>
       </c>
@@ -7637,7 +7631,7 @@
       <c r="Z49" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="AA49" s="164">
+      <c r="AA49" s="144">
         <v>0.6</v>
       </c>
     </row>
@@ -7645,7 +7639,7 @@
       <c r="Z50" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="AA50" s="164">
+      <c r="AA50" s="144">
         <v>0.4</v>
       </c>
       <c r="AD50" s="19" t="s">
@@ -7656,13 +7650,13 @@
       <c r="Z51" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="AA51" s="164">
+      <c r="AA51" s="144">
         <v>0</v>
       </c>
       <c r="AC51" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="AD51" s="168">
+      <c r="AD51" s="148">
         <f>AD48*AA53-SUM(Z43:Z46)</f>
         <v>2999.4435390534782</v>
       </c>
@@ -7674,7 +7668,7 @@
       <c r="Z53" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="AA53" s="165">
+      <c r="AA53" s="145">
         <v>117500</v>
       </c>
     </row>
@@ -7883,27 +7877,27 @@
       <c r="D13" s="16"/>
     </row>
     <row r="15" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="H15" s="117" t="s">
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="H15" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="116" t="s">
+      <c r="I15" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="117"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="39" t="s">
         <v>4</v>
       </c>
@@ -7916,7 +7910,7 @@
       <c r="F16" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="117"/>
+      <c r="H16" s="155"/>
       <c r="I16" s="72" t="s">
         <v>9</v>
       </c>
@@ -8155,19 +8149,19 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O32" s="115" t="s">
+      <c r="O32" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="116" t="s">
+      <c r="P32" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="154"/>
     </row>
     <row r="33" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O33" s="115"/>
+      <c r="O33" s="153"/>
       <c r="P33" s="39" t="s">
         <v>4</v>
       </c>
@@ -8264,19 +8258,19 @@
       <c r="S38" s="15"/>
     </row>
     <row r="40" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O40" s="115" t="s">
+      <c r="O40" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="116" t="s">
+      <c r="P40" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154"/>
+      <c r="S40" s="154"/>
+      <c r="T40" s="154"/>
     </row>
     <row r="41" spans="15:20" x14ac:dyDescent="0.2">
-      <c r="O41" s="115"/>
+      <c r="O41" s="153"/>
       <c r="P41" s="72" t="s">
         <v>9</v>
       </c>
@@ -8566,25 +8560,25 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
       <c r="J5" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="2">
         <v>12</v>
       </c>
@@ -8778,22 +8772,22 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O14" s="118" t="s">
+      <c r="O14" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="118" t="s">
+      <c r="P14" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="119" t="s">
+      <c r="Q14" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
       <c r="Q15" s="2">
         <v>12</v>
       </c>
@@ -9729,18 +9723,18 @@
       <c r="AB22" s="19"/>
     </row>
     <row r="23" spans="2:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="120" t="s">
+      <c r="M23" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="120" t="s">
+      <c r="N23" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="116" t="s">
+      <c r="O23" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
       <c r="X23" s="19"/>
       <c r="Y23" s="7" t="s">
         <v>180</v>
@@ -9750,14 +9744,14 @@
       <c r="AB23" s="19"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="116" t="s">
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
       <c r="T24" s="87"/>
       <c r="U24" s="7" t="s">
         <v>177</v>
@@ -9775,8 +9769,8 @@
       <c r="AB24" s="19"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
       <c r="O25" s="39">
         <v>12</v>
       </c>
@@ -10029,24 +10023,24 @@
       </c>
     </row>
     <row r="33" spans="13:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="154"/>
     </row>
     <row r="34" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="N34" s="120" t="s">
+      <c r="N34" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="116" t="s">
+      <c r="O34" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="154"/>
     </row>
     <row r="35" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="N35" s="120"/>
+      <c r="N35" s="158"/>
       <c r="O35" s="72" t="s">
         <v>9</v>
       </c>
@@ -10372,8 +10366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31610A-B01B-3645-9EE3-5A370BF8379C}">
   <dimension ref="B2:AC42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH53" sqref="AH53"/>
+    <sheetView topLeftCell="Q14" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10768,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="29">
-        <f t="shared" ref="AC32:AC37" si="2">X32*$AA$40*(1-AB32)</f>
+        <f>X32*$AA$40*(1-AB32)</f>
         <v>0</v>
       </c>
     </row>
@@ -10789,15 +10783,15 @@
         <v>1.0529999999999999</v>
       </c>
       <c r="AA33" s="28">
-        <f t="shared" ref="AA33:AA37" si="3">Y33*Z33</f>
+        <f t="shared" ref="AA33:AA37" si="2">Y33*Z33</f>
         <v>3580.2</v>
       </c>
       <c r="AB33" s="96">
-        <f t="shared" ref="AB33:AB37" si="4">1/Z33</f>
+        <f t="shared" ref="AB33:AB37" si="3">1/Z33</f>
         <v>0.94966761633428309</v>
       </c>
       <c r="AC33" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AC32:AC37" si="4">X33*$AA$40*(1-AB33)</f>
         <v>181.88516426949184</v>
       </c>
     </row>
@@ -10818,15 +10812,15 @@
         <v>1.1759999999999999</v>
       </c>
       <c r="AA34" s="28">
+        <f t="shared" si="2"/>
+        <v>4116</v>
+      </c>
+      <c r="AB34" s="96">
         <f t="shared" si="3"/>
-        <v>4116</v>
-      </c>
-      <c r="AB34" s="96">
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="AC34" s="29">
         <f t="shared" si="4"/>
-        <v>0.85034013605442182</v>
-      </c>
-      <c r="AC34" s="29">
-        <f t="shared" si="2"/>
         <v>624.02649735894295</v>
       </c>
     </row>
@@ -10847,15 +10841,15 @@
         <v>1.429</v>
       </c>
       <c r="AA35" s="28">
+        <f t="shared" si="2"/>
+        <v>4001.2000000000003</v>
+      </c>
+      <c r="AB35" s="96">
         <f t="shared" si="3"/>
-        <v>4001.2000000000003</v>
-      </c>
-      <c r="AB35" s="96">
+        <v>0.69979006298110569</v>
+      </c>
+      <c r="AC35" s="29">
         <f t="shared" si="4"/>
-        <v>0.69979006298110569</v>
-      </c>
-      <c r="AC35" s="29">
-        <f t="shared" si="2"/>
         <v>1301.8354323768979</v>
       </c>
     </row>
@@ -10876,15 +10870,15 @@
         <v>2</v>
       </c>
       <c r="AA36" s="28">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="AB36" s="96">
         <f t="shared" si="3"/>
-        <v>4200</v>
-      </c>
-      <c r="AB36" s="96">
+        <v>0.5</v>
+      </c>
+      <c r="AC36" s="25">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC36" s="25">
-        <f t="shared" si="2"/>
         <v>2168.2084299144371</v>
       </c>
     </row>
@@ -10905,15 +10899,15 @@
         <v>4</v>
       </c>
       <c r="AA37" s="30">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="AB37" s="97">
         <f t="shared" si="3"/>
-        <v>6400</v>
-      </c>
-      <c r="AB37" s="97">
+        <v>0.25</v>
+      </c>
+      <c r="AC37" s="31">
         <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="AC37" s="31">
-        <f t="shared" si="2"/>
         <v>2918.7421171925112</v>
       </c>
     </row>
@@ -10983,34 +10977,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="156" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="47"/>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="L2" s="118" t="s">
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="L2" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="118"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -11021,7 +11015,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="118"/>
+      <c r="G3" s="157"/>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
@@ -11031,7 +11025,7 @@
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="118"/>
+      <c r="L3" s="157"/>
       <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
@@ -11153,29 +11147,29 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="156" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="119"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="L9" s="118" t="s">
+      <c r="L9" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="119" t="s">
+      <c r="M9" s="156" t="s">
         <v>224</v>
       </c>
-      <c r="N9" s="119"/>
+      <c r="N9" s="156"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="79" t="s">
         <v>9</v>
       </c>
@@ -11190,7 +11184,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="L10" s="118"/>
+      <c r="L10" s="157"/>
       <c r="M10" s="79" t="s">
         <v>9</v>
       </c>
@@ -11851,59 +11845,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="156" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="I2" s="119" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="I2" s="156" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="P2" s="119" t="s">
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="P2" s="156" t="s">
         <v>272</v>
       </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="I3" s="121" t="s">
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="I3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="P3" s="121" t="s">
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="P3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="119" t="s">
+      <c r="Q3" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="121"/>
+      <c r="B4" s="159"/>
       <c r="C4" s="2">
         <v>12</v>
       </c>
@@ -11916,7 +11910,7 @@
       <c r="F4" s="2">
         <v>48</v>
       </c>
-      <c r="I4" s="121"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="2">
         <v>12</v>
       </c>
@@ -11929,7 +11923,7 @@
       <c r="M4" s="2">
         <v>48</v>
       </c>
-      <c r="P4" s="121"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="2">
         <v>12</v>
       </c>
@@ -12118,22 +12112,22 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="156" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="I11" s="119" t="s">
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="I11" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
       <c r="O11" s="47"/>
       <c r="P11" s="3" t="s">
         <v>70</v>
@@ -12156,28 +12150,28 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="121" t="s">
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="159" t="s">
         <v>264</v>
       </c>
-      <c r="I12" s="121" t="s">
+      <c r="I12" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="119" t="s">
+      <c r="J12" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="121" t="s">
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="159" t="s">
         <v>264</v>
       </c>
       <c r="O12" s="48"/>
@@ -12199,7 +12193,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="121"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="2">
         <v>12</v>
       </c>
@@ -12212,8 +12206,8 @@
       <c r="F13" s="2">
         <v>48</v>
       </c>
-      <c r="G13" s="121"/>
-      <c r="I13" s="121"/>
+      <c r="G13" s="159"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="2">
         <v>12</v>
       </c>
@@ -12226,7 +12220,7 @@
       <c r="M13" s="2">
         <v>48</v>
       </c>
-      <c r="N13" s="121"/>
+      <c r="N13" s="159"/>
       <c r="O13" s="48"/>
       <c r="P13" s="3"/>
     </row>
@@ -12423,14 +12417,14 @@
       <c r="C20" s="77">
         <v>0.05</v>
       </c>
-      <c r="I20" s="119" t="s">
+      <c r="I20" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
       <c r="O20" s="47"/>
       <c r="P20" s="3" t="s">
         <v>70</v>
@@ -12446,16 +12440,16 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I21" s="121" t="s">
+      <c r="I21" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="119" t="s">
+      <c r="J21" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="121" t="s">
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="159" t="s">
         <v>264</v>
       </c>
       <c r="O21" s="48"/>
@@ -12477,7 +12471,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I22" s="121"/>
+      <c r="I22" s="159"/>
       <c r="J22" s="2">
         <v>12</v>
       </c>
@@ -12490,7 +12484,7 @@
       <c r="M22" s="2">
         <v>48</v>
       </c>
-      <c r="N22" s="121"/>
+      <c r="N22" s="159"/>
       <c r="O22" s="48"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
@@ -12626,13 +12620,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="I20:N20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:M21"/>
@@ -12647,6 +12634,13 @@
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:M3"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
